--- a/results/cifar100/lwf_cifar100.xlsx
+++ b/results/cifar100/lwf_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.424067488813822</v>
+        <v>3.474543124173595</v>
       </c>
       <c r="D3">
-        <v>3.291161060333252</v>
+        <v>3.273371934890747</v>
       </c>
       <c r="E3">
-        <v>7.4</v>
+        <v>8.17</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.280128369140625</v>
+        <v>3.251035314941406</v>
       </c>
       <c r="J3">
-        <v>14.8</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.827987037928759</v>
+        <v>2.938379431192854</v>
       </c>
       <c r="D4">
-        <v>2.775941610336304</v>
+        <v>2.855861663818359</v>
       </c>
       <c r="E4">
-        <v>13.69</v>
+        <v>13.05</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>9.273962182617188</v>
+        <v>9.652428515624999</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.466947715894311</v>
+        <v>2.634203406561793</v>
       </c>
       <c r="D5">
-        <v>2.55558443069458</v>
+        <v>2.829031229019165</v>
       </c>
       <c r="E5">
-        <v>15.76</v>
+        <v>12.73</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2.748402392578125</v>
+        <v>2.801979974365234</v>
       </c>
       <c r="J5">
-        <v>27.38</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.202851092920894</v>
+        <v>2.378795398020111</v>
       </c>
       <c r="D6">
-        <v>2.296952486038208</v>
+        <v>2.584012985229492</v>
       </c>
       <c r="E6">
-        <v>18.22</v>
+        <v>15.4</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>10.73144760742188</v>
+        <v>10.30149138183594</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.993984698194318</v>
+        <v>2.156414885436539</v>
       </c>
       <c r="D7">
-        <v>2.13140344619751</v>
+        <v>2.297402858734131</v>
       </c>
       <c r="E7">
-        <v>20.8</v>
+        <v>17.79</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2.509229559326172</v>
+        <v>2.784547253417969</v>
       </c>
       <c r="J7">
-        <v>31.52</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.812370545041245</v>
+        <v>1.957168415584395</v>
       </c>
       <c r="D8">
-        <v>2.116555690765381</v>
+        <v>2.139500379562378</v>
       </c>
       <c r="E8">
-        <v>20.96</v>
+        <v>21.27</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>10.8381251953125</v>
+        <v>11.44575546875</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.671230576734627</v>
+        <v>1.795623262371637</v>
       </c>
       <c r="D9">
-        <v>2.160841941833496</v>
+        <v>2.214221239089966</v>
       </c>
       <c r="E9">
-        <v>21.36</v>
+        <v>20.51</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>2.286192626953125</v>
+        <v>2.543384075927734</v>
       </c>
       <c r="J9">
-        <v>36.44</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.547765756075361</v>
+        <v>1.657437399425338</v>
       </c>
       <c r="D10">
-        <v>1.914621829986572</v>
+        <v>2.18310284614563</v>
       </c>
       <c r="E10">
-        <v>23.84</v>
+        <v>21.01</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>11.89756108398437</v>
+        <v>11.77465322265625</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.429064969045926</v>
+        <v>1.540816421002413</v>
       </c>
       <c r="D11">
-        <v>1.880212903022766</v>
+        <v>2.026508569717407</v>
       </c>
       <c r="E11">
-        <v>24.24</v>
+        <v>22.67</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>2.120215161132812</v>
+        <v>2.314017077636719</v>
       </c>
       <c r="J11">
-        <v>41.6</v>
+        <v>35.58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.316472397441358</v>
+        <v>1.428233204689701</v>
       </c>
       <c r="D12">
-        <v>2.196674108505249</v>
+        <v>1.861307501792908</v>
       </c>
       <c r="E12">
-        <v>21.74</v>
+        <v>24.25</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>12.4195744140625</v>
+        <v>12.52750517578125</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.216264347059537</v>
+        <v>1.320943209977277</v>
       </c>
       <c r="D13">
-        <v>2.000079154968262</v>
+        <v>2.17348051071167</v>
       </c>
       <c r="E13">
-        <v>23.53</v>
+        <v>21.15</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>2.072222802734375</v>
+        <v>2.077167620849609</v>
       </c>
       <c r="J13">
-        <v>41.92</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.136092942372888</v>
+        <v>1.238616119443843</v>
       </c>
       <c r="D14">
-        <v>1.879395246505737</v>
+        <v>1.973488569259644</v>
       </c>
       <c r="E14">
-        <v>24.98</v>
+        <v>23.95</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>12.5760203125</v>
+        <v>12.5195373046875</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.043402929749109</v>
+        <v>1.157850160007983</v>
       </c>
       <c r="D15">
-        <v>1.929710626602173</v>
+        <v>2.495079040527344</v>
       </c>
       <c r="E15">
-        <v>24.25</v>
+        <v>19.84</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>2.095260601806641</v>
+        <v>2.172360015869141</v>
       </c>
       <c r="J15">
-        <v>42.72</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9584968564784633</v>
+        <v>1.059352152115476</v>
       </c>
       <c r="D16">
-        <v>2.13815975189209</v>
+        <v>2.264459371566772</v>
       </c>
       <c r="E16">
-        <v>23.68</v>
+        <v>21.34</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>12.92477827148437</v>
+        <v>13.43101264648437</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.864360113059525</v>
+        <v>0.9855281773921662</v>
       </c>
       <c r="D17">
-        <v>1.895841240882874</v>
+        <v>2.226696491241455</v>
       </c>
       <c r="E17">
-        <v>24.85</v>
+        <v>21.91</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>1.873635845947266</v>
+        <v>2.137032434082031</v>
       </c>
       <c r="J17">
-        <v>47.68</v>
+        <v>42.02</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7737020438751289</v>
+        <v>0.8983465538615674</v>
       </c>
       <c r="D18">
-        <v>2.23804783821106</v>
+        <v>2.028701543807983</v>
       </c>
       <c r="E18">
-        <v>23.03</v>
+        <v>24.24</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>12.90451323242188</v>
+        <v>13.35962734375</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.715136519575541</v>
+        <v>0.8213424065471751</v>
       </c>
       <c r="D19">
-        <v>2.212724208831787</v>
+        <v>2.095842838287354</v>
       </c>
       <c r="E19">
-        <v>23.41</v>
+        <v>23.81</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>1.833751129150391</v>
+        <v>1.953855755615234</v>
       </c>
       <c r="J19">
-        <v>48.48</v>
+        <v>45.34</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6432482542189877</v>
+        <v>0.7670541864580813</v>
       </c>
       <c r="D20">
-        <v>2.304924726486206</v>
+        <v>2.044339179992676</v>
       </c>
       <c r="E20">
-        <v>22.78</v>
+        <v>24.68</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>12.53117685546875</v>
+        <v>13.04230849609375</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.5805448697204083</v>
+        <v>0.6777997510095614</v>
       </c>
       <c r="D21">
-        <v>2.254681825637817</v>
+        <v>2.092931747436523</v>
       </c>
       <c r="E21">
-        <v>24.04</v>
+        <v>23.72</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>2.137240704345703</v>
+        <v>1.835673510742188</v>
       </c>
       <c r="J21">
-        <v>43.48</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.5110386678602843</v>
+        <v>0.6057877290037881</v>
       </c>
       <c r="D22">
-        <v>3.174026966094971</v>
+        <v>2.104589462280273</v>
       </c>
       <c r="E22">
-        <v>18.62</v>
+        <v>24.85</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>14.55324321289062</v>
+        <v>14.17207944335937</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4720334624294686</v>
+        <v>1.15830400612502</v>
       </c>
       <c r="D23">
-        <v>2.363613128662109</v>
+        <v>1.610076189041138</v>
       </c>
       <c r="E23">
-        <v>23.87</v>
+        <v>27.53</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>1.94638671875</v>
+        <v>2.165112561035156</v>
       </c>
       <c r="J23">
-        <v>47.06</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.4005018319703836</v>
+        <v>1.072951527823389</v>
       </c>
       <c r="D24">
-        <v>2.639633178710938</v>
+        <v>1.611924052238464</v>
       </c>
       <c r="E24">
-        <v>23.2</v>
+        <v>27.41</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>14.09818256835938</v>
+        <v>14.394124609375</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8521363508384839</v>
+        <v>1.030336544576999</v>
       </c>
       <c r="D25">
-        <v>1.594212412834167</v>
+        <v>1.617699265480042</v>
       </c>
       <c r="E25">
-        <v>28.06</v>
+        <v>27.53</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>1.817816027832031</v>
+        <v>1.906100396728516</v>
       </c>
       <c r="J25">
-        <v>49.96</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.7540417387422207</v>
+        <v>0.9860951853009452</v>
       </c>
       <c r="D26">
-        <v>1.604668498039246</v>
+        <v>1.629010081291199</v>
       </c>
       <c r="E26">
-        <v>27.94</v>
+        <v>27.13</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>13.84283706054688</v>
+        <v>14.41656704101563</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.7105777311114083</v>
+        <v>0.9497687895741083</v>
       </c>
       <c r="D27">
-        <v>1.633077502250671</v>
+        <v>1.658397793769836</v>
       </c>
       <c r="E27">
-        <v>28.02</v>
+        <v>26.97</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>1.869946441650391</v>
+        <v>2.412094519042969</v>
       </c>
       <c r="J27">
-        <v>48.5</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.6686375262462987</v>
+        <v>0.9128250991348672</v>
       </c>
       <c r="D28">
-        <v>1.641098380088806</v>
+        <v>1.633207201957703</v>
       </c>
       <c r="E28">
-        <v>27.78</v>
+        <v>26.98</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>14.37980874023438</v>
+        <v>15.08865673828125</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.6310390724545032</v>
+        <v>0.871468245455649</v>
       </c>
       <c r="D29">
-        <v>1.668220281600952</v>
+        <v>1.690787315368652</v>
       </c>
       <c r="E29">
-        <v>27.71</v>
+        <v>26.95</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>2.073092749023437</v>
+        <v>2.231553173828125</v>
       </c>
       <c r="J29">
-        <v>47.36</v>
+        <v>42.68</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.593032075504286</v>
+        <v>0.8360198266738283</v>
       </c>
       <c r="D30">
-        <v>1.71562397480011</v>
+        <v>1.69220495223999</v>
       </c>
       <c r="E30">
-        <v>27.41</v>
+        <v>26.81</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>15.15614018554687</v>
+        <v>14.4139296875</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.5578112955641957</v>
+        <v>0.798529289465035</v>
       </c>
       <c r="D31">
-        <v>1.743512034416199</v>
+        <v>1.686532258987427</v>
       </c>
       <c r="E31">
-        <v>27.2</v>
+        <v>26.63</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>1.868288427734375</v>
+        <v>2.247269842529297</v>
       </c>
       <c r="J31">
-        <v>49.7</v>
+        <v>43.82</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.5224432111841387</v>
+        <v>0.7582374019960386</v>
       </c>
       <c r="D32">
-        <v>1.781550884246826</v>
+        <v>1.703541994094849</v>
       </c>
       <c r="E32">
-        <v>27.49</v>
+        <v>26.98</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>14.90101118164062</v>
+        <v>15.830704296875</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.4864440009129786</v>
+        <v>0.7215047594720283</v>
       </c>
       <c r="D33">
-        <v>1.78094208240509</v>
+        <v>1.718879461288452</v>
       </c>
       <c r="E33">
-        <v>27.01</v>
+        <v>26.62</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>2.151368200683594</v>
+        <v>1.979135192871094</v>
       </c>
       <c r="J33">
-        <v>46.06</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.4522427602679329</v>
+        <v>1.056394181420318</v>
       </c>
       <c r="D34">
-        <v>1.795126557350159</v>
+        <v>1.625337719917297</v>
       </c>
       <c r="E34">
-        <v>27.13</v>
+        <v>27.7</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>15.13620610351562</v>
+        <v>14.83394418945313</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.4206255320954112</v>
+        <v>1.0392389492651</v>
       </c>
       <c r="D35">
-        <v>1.810226321220398</v>
+        <v>1.591028809547424</v>
       </c>
       <c r="E35">
-        <v>27.13</v>
+        <v>27.74</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>2.137068469238281</v>
+        <v>2.050440460205078</v>
       </c>
       <c r="J35">
-        <v>46.82</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.7420626018954589</v>
+        <v>1.024265460208454</v>
       </c>
       <c r="D36">
-        <v>1.560842275619507</v>
+        <v>1.602338671684265</v>
       </c>
       <c r="E36">
-        <v>28.59</v>
+        <v>27.82</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>15.72441235351562</v>
+        <v>15.68529340820312</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.7213298472682986</v>
+        <v>1.01826844384185</v>
       </c>
       <c r="D37">
-        <v>1.584158182144165</v>
+        <v>1.601307153701782</v>
       </c>
       <c r="E37">
-        <v>28.46</v>
+        <v>27.76</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>2.244751873779297</v>
+        <v>1.996372424316406</v>
       </c>
       <c r="J37">
-        <v>45.56</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.7097804166574394</v>
+        <v>1.004401215937285</v>
       </c>
       <c r="D38">
-        <v>1.584381699562073</v>
+        <v>1.593925476074219</v>
       </c>
       <c r="E38">
-        <v>28.59</v>
+        <v>27.59</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>15.78131098632812</v>
+        <v>16.18096796875</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.6968913141605073</v>
+        <v>0.9916486719013315</v>
       </c>
       <c r="D39">
-        <v>1.580824375152588</v>
+        <v>1.614549517631531</v>
       </c>
       <c r="E39">
-        <v>28.55</v>
+        <v>27.83</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>2.174644073486328</v>
+        <v>2.119011700439453</v>
       </c>
       <c r="J39">
-        <v>48.08</v>
+        <v>47.44</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.6843733555447739</v>
+        <v>0.9822124907400756</v>
       </c>
       <c r="D40">
-        <v>1.583158850669861</v>
+        <v>1.57807183265686</v>
       </c>
       <c r="E40">
-        <v>28.43</v>
+        <v>27.78</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>15.5383158203125</v>
+        <v>15.4748708984375</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.6723947841509254</v>
+        <v>0.9688087775643948</v>
       </c>
       <c r="D41">
-        <v>1.611853718757629</v>
+        <v>1.593508839607239</v>
       </c>
       <c r="E41">
-        <v>28.56</v>
+        <v>27.66</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>3.128714770507813</v>
+        <v>2.117166436767578</v>
       </c>
       <c r="J41">
-        <v>37.24</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.6592054931463394</v>
+        <v>0.9631528363818616</v>
       </c>
       <c r="D42">
-        <v>1.588726997375488</v>
+        <v>1.607036113739014</v>
       </c>
       <c r="E42">
-        <v>28.26</v>
+        <v>28.02</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>16.2993935546875</v>
+        <v>16.5730533203125</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.6519337921543459</v>
+        <v>0.9510162963276416</v>
       </c>
       <c r="D43">
-        <v>1.593250870704651</v>
+        <v>1.593631982803345</v>
       </c>
       <c r="E43">
-        <v>28.39</v>
+        <v>27.85</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>2.252419342041016</v>
+        <v>1.584990588378906</v>
       </c>
       <c r="J43">
-        <v>47.74</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.638373244652706</v>
+        <v>0.9382994881773417</v>
       </c>
       <c r="D44">
-        <v>1.5973961353302</v>
+        <v>1.59476625919342</v>
       </c>
       <c r="E44">
-        <v>28.36</v>
+        <v>27.74</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>15.90588676757812</v>
+        <v>13.65788950195313</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.6289106137984621</v>
+        <v>0.9261350631713867</v>
       </c>
       <c r="D45">
-        <v>1.610173463821411</v>
+        <v>1.588432908058167</v>
       </c>
       <c r="E45">
-        <v>28.27</v>
+        <v>27.76</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>2.567334027099609</v>
+        <v>1.601769708251953</v>
       </c>
       <c r="J45">
-        <v>46.4</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.6208499071344865</v>
+        <v>0.9181525095374183</v>
       </c>
       <c r="D46">
-        <v>1.619675636291504</v>
+        <v>1.616716265678406</v>
       </c>
       <c r="E46">
-        <v>28.29</v>
+        <v>27.7</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>17.80581181640625</v>
+        <v>13.71844829101562</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.7171706947605166</v>
+        <v>0.9086371443967903</v>
       </c>
       <c r="D47">
-        <v>1.56621265411377</v>
+        <v>1.604169368743896</v>
       </c>
       <c r="E47">
-        <v>28.53</v>
+        <v>27.55</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>1.533173724365234</v>
+        <v>1.591387139892578</v>
       </c>
       <c r="J47">
-        <v>56.12</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1769,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.7147414420558288</v>
+        <v>0.8992377203122704</v>
       </c>
       <c r="D48">
-        <v>1.560251832008362</v>
+        <v>1.610784769058228</v>
       </c>
       <c r="E48">
-        <v>28.55</v>
+        <v>27.71</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1784,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>14.01513461914062</v>
+        <v>13.88785786132813</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.7131620170795812</v>
+        <v>0.8895973468248823</v>
       </c>
       <c r="D49">
-        <v>1.562533378601074</v>
+        <v>1.628331184387207</v>
       </c>
       <c r="E49">
-        <v>28.52</v>
+        <v>27.66</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>1.553555938720703</v>
+        <v>1.608209301757813</v>
       </c>
       <c r="J49">
-        <v>55.88</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1827,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.7089162922538488</v>
+        <v>0.877928350351553</v>
       </c>
       <c r="D50">
-        <v>1.560656428337097</v>
+        <v>1.60942006111145</v>
       </c>
       <c r="E50">
-        <v>28.66</v>
+        <v>27.54</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>14.21214975585938</v>
+        <v>14.05679750976562</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.7081300632088585</v>
+        <v>0.9652308410247871</v>
       </c>
       <c r="D51">
-        <v>1.566072344779968</v>
+        <v>1.600869655609131</v>
       </c>
       <c r="E51">
-        <v>28.51</v>
+        <v>27.77</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>1.571275146484375</v>
+        <v>1.625065289306641</v>
       </c>
       <c r="J51">
-        <v>56.04</v>
+        <v>53.94</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.7039621087302149</v>
+        <v>0.9601657817849015</v>
       </c>
       <c r="D52">
-        <v>1.574319362640381</v>
+        <v>1.586089730262756</v>
       </c>
       <c r="E52">
-        <v>28.59</v>
+        <v>27.87</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1900,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>14.33028012695313</v>
+        <v>14.0516625</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.7015018188847905</v>
+        <v>0.9569932058849165</v>
       </c>
       <c r="D53">
-        <v>1.570308923721313</v>
+        <v>1.587933540344238</v>
       </c>
       <c r="E53">
-        <v>28.51</v>
+        <v>27.83</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>1.584708514404297</v>
+        <v>1.622232208251953</v>
       </c>
       <c r="J53">
-        <v>55.56</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1943,13 +1943,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.6981416107279009</v>
+        <v>0.9570971690447985</v>
       </c>
       <c r="D54">
-        <v>1.583596467971802</v>
+        <v>1.605631470680237</v>
       </c>
       <c r="E54">
-        <v>28.61</v>
+        <v>27.77</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -1958,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>14.30953369140625</v>
+        <v>14.07684765625</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.6932629594760659</v>
+        <v>0.9557160450293954</v>
       </c>
       <c r="D55">
-        <v>1.555735468864441</v>
+        <v>1.596101403236389</v>
       </c>
       <c r="E55">
-        <v>28.43</v>
+        <v>27.88</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1987,10 +1987,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>1.60151298828125</v>
+        <v>1.646554254150391</v>
       </c>
       <c r="J55">
-        <v>55.42</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2001,13 +2001,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.6929483197431648</v>
+        <v>0.9540640812004562</v>
       </c>
       <c r="D56">
-        <v>1.576009750366211</v>
+        <v>1.596956491470337</v>
       </c>
       <c r="E56">
-        <v>28.59</v>
+        <v>27.79</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2016,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>14.6399265625</v>
+        <v>14.275174609375</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.6889889693893163</v>
+        <v>0.9497758408563327</v>
       </c>
       <c r="D57">
-        <v>1.584041833877563</v>
+        <v>1.602217555046082</v>
       </c>
       <c r="E57">
-        <v>28.47</v>
+        <v>27.85</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>1.63765654296875</v>
+        <v>1.654843536376953</v>
       </c>
       <c r="J57">
-        <v>54.82</v>
+        <v>53.62</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2059,13 +2059,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.6856231589232926</v>
+        <v>0.9467053645479996</v>
       </c>
       <c r="D58">
-        <v>1.603515982627869</v>
+        <v>1.602970480918884</v>
       </c>
       <c r="E58">
-        <v>28.54</v>
+        <v>27.84</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>14.58633388671875</v>
+        <v>14.29055473632813</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.6840905494394556</v>
+        <v>0.9450413632181893</v>
       </c>
       <c r="D59">
-        <v>1.572170495986938</v>
+        <v>1.617616295814514</v>
       </c>
       <c r="E59">
-        <v>28.46</v>
+        <v>27.87</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>1.676944683837891</v>
+        <v>1.682176452636719</v>
       </c>
       <c r="J59">
-        <v>54.4</v>
+        <v>53.26</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2117,13 +2117,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.6811848404133214</v>
+        <v>0.9440142765509344</v>
       </c>
       <c r="D60">
-        <v>1.5750652551651</v>
+        <v>1.599485993385315</v>
       </c>
       <c r="E60">
-        <v>28.29</v>
+        <v>27.83</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>14.65806430664063</v>
+        <v>14.43680473632812</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.6781439005801108</v>
+        <v>0.9638108758799797</v>
       </c>
       <c r="D61">
-        <v>1.562731742858887</v>
+        <v>1.60230016708374</v>
       </c>
       <c r="E61">
-        <v>28.46</v>
+        <v>27.69</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2161,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>1.682800616455078</v>
+        <v>1.683427038574219</v>
       </c>
       <c r="J61">
-        <v>54.98</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2175,13 +2175,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.6760537442380348</v>
+        <v>0.9632072390708248</v>
       </c>
       <c r="D62">
-        <v>1.565056443214417</v>
+        <v>1.585401058197021</v>
       </c>
       <c r="E62">
-        <v>28.41</v>
+        <v>27.9</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2190,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>15.05813662109375</v>
+        <v>14.51881147460938</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.6725398080538859</v>
+        <v>0.9626491249135111</v>
       </c>
       <c r="D63">
-        <v>1.580563187599182</v>
+        <v>1.595719575881958</v>
       </c>
       <c r="E63">
-        <v>28.42</v>
+        <v>27.82</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>1.691241265869141</v>
+        <v>1.719333148193359</v>
       </c>
       <c r="J63">
-        <v>54.02</v>
+        <v>53.24</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2233,13 +2233,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.6694833156281867</v>
+        <v>0.9605355310229073</v>
       </c>
       <c r="D64">
-        <v>1.598863124847412</v>
+        <v>1.587626934051514</v>
       </c>
       <c r="E64">
-        <v>28.48</v>
+        <v>27.83</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2248,7 +2248,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>14.97532314453125</v>
+        <v>14.41979853515625</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.6686265067716616</v>
+        <v>0.9605943776864921</v>
       </c>
       <c r="D65">
-        <v>1.586734294891357</v>
+        <v>1.585201025009155</v>
       </c>
       <c r="E65">
-        <v>28.43</v>
+        <v>27.8</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>1.719736273193359</v>
+        <v>1.569239190673828</v>
       </c>
       <c r="J65">
-        <v>54.26</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2291,13 +2291,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.691526243644478</v>
+        <v>0.9605280899368556</v>
       </c>
       <c r="D66">
-        <v>1.587293267250061</v>
+        <v>1.637427926063538</v>
       </c>
       <c r="E66">
-        <v>28.42</v>
+        <v>27.87</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>14.86885668945312</v>
+        <v>13.694166015625</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.6912303851769034</v>
+        <v>0.959591076437351</v>
       </c>
       <c r="D67">
-        <v>1.573996186256409</v>
+        <v>1.612149238586426</v>
       </c>
       <c r="E67">
-        <v>28.58</v>
+        <v>27.76</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>1.742439721679687</v>
+        <v>1.568476818847656</v>
       </c>
       <c r="J67">
-        <v>54.26</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2349,13 +2349,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.6888407004618011</v>
+        <v>0.9595181071652775</v>
       </c>
       <c r="D68">
-        <v>1.591523170471191</v>
+        <v>1.578776240348816</v>
       </c>
       <c r="E68">
-        <v>28.52</v>
+        <v>27.96</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>15.16304750976563</v>
+        <v>13.7576814453125</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.6888904017684734</v>
+        <v>0.9577835276063564</v>
       </c>
       <c r="D69">
-        <v>1.577492237091064</v>
+        <v>1.588616251945496</v>
       </c>
       <c r="E69">
-        <v>28.51</v>
+        <v>27.86</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>1.512626354980469</v>
+        <v>1.564409765625</v>
       </c>
       <c r="J69">
-        <v>57.18</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2407,13 +2407,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.6883255011212509</v>
+        <v>0.960379670151567</v>
       </c>
       <c r="D70">
-        <v>1.587276935577393</v>
+        <v>1.609041810035706</v>
       </c>
       <c r="E70">
-        <v>28.45</v>
+        <v>27.87</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>14.0842671875</v>
+        <v>13.72446440429687</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.6874719863444303</v>
+        <v>0.963707498217051</v>
       </c>
       <c r="D71">
-        <v>1.571290969848633</v>
+        <v>1.602121829986572</v>
       </c>
       <c r="E71">
-        <v>28.42</v>
+        <v>27.86</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>1.516992944335938</v>
+        <v>1.567431726074219</v>
       </c>
       <c r="J71">
-        <v>56.92</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2465,13 +2465,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.6873061588380189</v>
+        <v>0.9623041010535924</v>
       </c>
       <c r="D72">
-        <v>1.564714193344116</v>
+        <v>1.607697486877441</v>
       </c>
       <c r="E72">
-        <v>28.49</v>
+        <v>27.74</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>14.09173447265625</v>
+        <v>13.7864353515625</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.6880195668313356</v>
+        <v>0.9621556047844676</v>
       </c>
       <c r="D73">
-        <v>1.564716339111328</v>
+        <v>1.607573509216309</v>
       </c>
       <c r="E73">
-        <v>28.54</v>
+        <v>27.71</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2509,10 +2509,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>1.521344909667969</v>
+        <v>1.571125463867187</v>
       </c>
       <c r="J73">
-        <v>57.18</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2523,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.687956142742022</v>
+        <v>0.9633027953384197</v>
       </c>
       <c r="D74">
-        <v>1.592725396156311</v>
+        <v>1.603058457374573</v>
       </c>
       <c r="E74">
-        <v>28.44</v>
+        <v>27.67</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>14.13720219726562</v>
+        <v>13.819886328125</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.6844685009095521</v>
+        <v>0.9621197154036666</v>
       </c>
       <c r="D75">
-        <v>1.583290696144104</v>
+        <v>1.608511209487915</v>
       </c>
       <c r="E75">
-        <v>28.61</v>
+        <v>27.81</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>1.523278161621094</v>
+        <v>1.570144970703125</v>
       </c>
       <c r="J75">
-        <v>57.1</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2581,13 +2581,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.6929382993056711</v>
+        <v>0.9630963084972011</v>
       </c>
       <c r="D76">
-        <v>1.590093970298767</v>
+        <v>1.614197731018066</v>
       </c>
       <c r="E76">
-        <v>28.51</v>
+        <v>27.83</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>14.1501669921875</v>
+        <v>13.79596328125</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.691685021978564</v>
+        <v>0.9620237397936593</v>
       </c>
       <c r="D77">
-        <v>1.573110461235046</v>
+        <v>1.59599232673645</v>
       </c>
       <c r="E77">
-        <v>28.51</v>
+        <v>27.83</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2625,10 +2625,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>1.529006457519531</v>
+        <v>1.571679083251953</v>
       </c>
       <c r="J77">
-        <v>56.86</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2639,13 +2639,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.6903253377011392</v>
+        <v>0.9632250392331486</v>
       </c>
       <c r="D78">
-        <v>1.590174198150635</v>
+        <v>1.578674077987671</v>
       </c>
       <c r="E78">
-        <v>28.4</v>
+        <v>27.87</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>14.25240717773437</v>
+        <v>13.85100815429687</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.6884671919113767</v>
+        <v>0.9622511552498404</v>
       </c>
       <c r="D79">
-        <v>1.572191119194031</v>
+        <v>1.59597635269165</v>
       </c>
       <c r="E79">
-        <v>28.55</v>
+        <v>27.82</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2683,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>1.530860980224609</v>
+        <v>1.574351196289062</v>
       </c>
       <c r="J79">
-        <v>57.12</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2697,13 +2697,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.6908219973597907</v>
+        <v>0.9605983722526416</v>
       </c>
       <c r="D80">
-        <v>1.560537934303284</v>
+        <v>1.613381505012512</v>
       </c>
       <c r="E80">
-        <v>28.53</v>
+        <v>27.82</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>14.22595795898438</v>
+        <v>13.86536459960938</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.6900814012088606</v>
+        <v>0.9632318858551768</v>
       </c>
       <c r="D81">
-        <v>1.552063345909119</v>
+        <v>1.60731053352356</v>
       </c>
       <c r="E81">
-        <v>28.47</v>
+        <v>27.92</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2741,10 +2741,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>1.536884912109375</v>
+        <v>1.571940997314453</v>
       </c>
       <c r="J81">
-        <v>56.52</v>
+        <v>56.04</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2755,13 +2755,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.6882193674028447</v>
+        <v>0.9626466885077215</v>
       </c>
       <c r="D82">
-        <v>1.579265952110291</v>
+        <v>1.616850256919861</v>
       </c>
       <c r="E82">
-        <v>28.51</v>
+        <v>27.83</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2770,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>14.28192612304687</v>
+        <v>13.94827138671875</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.6902564431713746</v>
+        <v>0.9645899671368894</v>
       </c>
       <c r="D83">
-        <v>1.583346366882324</v>
+        <v>1.603484630584717</v>
       </c>
       <c r="E83">
-        <v>28.45</v>
+        <v>27.89</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2799,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>1.542818347167969</v>
+        <v>1.574565209960938</v>
       </c>
       <c r="J83">
-        <v>56.78</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2813,13 +2813,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.6883412114286844</v>
+        <v>0.9642214769810702</v>
       </c>
       <c r="D84">
-        <v>1.58651340007782</v>
+        <v>1.58717155456543</v>
       </c>
       <c r="E84">
-        <v>28.51</v>
+        <v>27.69</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2828,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>14.31020874023437</v>
+        <v>13.93765498046875</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.6884285148266143</v>
+        <v>0.9652945673571224</v>
       </c>
       <c r="D85">
-        <v>1.585800051689148</v>
+        <v>1.599173426628113</v>
       </c>
       <c r="E85">
-        <v>28.51</v>
+        <v>27.74</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>1.543630865478516</v>
+        <v>1.574420281982422</v>
       </c>
       <c r="J85">
-        <v>56.72</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2871,13 +2871,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.6882150394726644</v>
+        <v>0.9645801297331278</v>
       </c>
       <c r="D86">
-        <v>1.575903415679932</v>
+        <v>1.606325387954712</v>
       </c>
       <c r="E86">
-        <v>28.46</v>
+        <v>27.68</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>14.30345444335937</v>
+        <v>13.95992065429687</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.6903451760258295</v>
+        <v>0.9645085593240451</v>
       </c>
       <c r="D87">
-        <v>1.564101934432983</v>
+        <v>1.607571721076965</v>
       </c>
       <c r="E87">
-        <v>28.45</v>
+        <v>27.77</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -2915,10 +2915,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>1.545548742675781</v>
+        <v>1.581676837158203</v>
       </c>
       <c r="J87">
-        <v>56.54</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2929,13 +2929,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.6902869602220248</v>
+        <v>0.9640545634041845</v>
       </c>
       <c r="D88">
-        <v>1.585780739784241</v>
+        <v>1.587386965751648</v>
       </c>
       <c r="E88">
-        <v>28.53</v>
+        <v>27.75</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2944,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>14.34167905273437</v>
+        <v>14.00271953125</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.6880117559854964</v>
+        <v>0.9630583973057503</v>
       </c>
       <c r="D89">
-        <v>1.583545327186584</v>
+        <v>1.603908896446228</v>
       </c>
       <c r="E89">
-        <v>28.56</v>
+        <v>27.75</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -2973,10 +2973,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>1.552100982666016</v>
+        <v>1.582055560302734</v>
       </c>
       <c r="J89">
-        <v>56.58</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2987,13 +2987,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.6887508873390941</v>
+        <v>0.9629197078468525</v>
       </c>
       <c r="D90">
-        <v>1.600005626678467</v>
+        <v>1.601486802101135</v>
       </c>
       <c r="E90">
-        <v>28.5</v>
+        <v>27.74</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>14.26946694335937</v>
+        <v>14.09385439453125</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.6870983575297668</v>
+        <v>0.9648803187682565</v>
       </c>
       <c r="D91">
-        <v>1.591076850891113</v>
+        <v>1.611374497413635</v>
       </c>
       <c r="E91">
-        <v>28.46</v>
+        <v>27.83</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>1.51259045715332</v>
+        <v>1.583885571289062</v>
       </c>
       <c r="J91">
-        <v>57.06</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3045,13 +3045,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.6920565372019742</v>
+        <v>0.963532775904225</v>
       </c>
       <c r="D92">
-        <v>1.578433513641357</v>
+        <v>1.607295870780945</v>
       </c>
       <c r="E92">
-        <v>28.5</v>
+        <v>27.54</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>14.084429296875</v>
+        <v>14.07386103515625</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.6903437782177883</v>
+        <v>0.9665089798184623</v>
       </c>
       <c r="D93">
-        <v>1.595508813858032</v>
+        <v>1.626765489578247</v>
       </c>
       <c r="E93">
-        <v>28.57</v>
+        <v>27.84</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>1.513194305419922</v>
+        <v>1.58645712890625</v>
       </c>
       <c r="J93">
-        <v>57.1</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3103,13 +3103,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.6890298977362371</v>
+        <v>0.9659972380747838</v>
       </c>
       <c r="D94">
-        <v>1.592909455299377</v>
+        <v>1.591323018074036</v>
       </c>
       <c r="E94">
-        <v>28.5</v>
+        <v>27.75</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>14.14178833007812</v>
+        <v>14.07764375</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.6882246131390597</v>
+        <v>0.9627889326188417</v>
       </c>
       <c r="D95">
-        <v>1.577210068702698</v>
+        <v>1.616472721099854</v>
       </c>
       <c r="E95">
-        <v>28.41</v>
+        <v>27.84</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3147,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>1.513722119140625</v>
+        <v>1.591129388427734</v>
       </c>
       <c r="J95">
-        <v>57.04</v>
+        <v>55.32</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3161,13 +3161,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.6899407801374925</v>
+        <v>0.9655675998831217</v>
       </c>
       <c r="D96">
-        <v>1.589133858680725</v>
+        <v>1.598839998245239</v>
       </c>
       <c r="E96">
-        <v>28.55</v>
+        <v>27.88</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>14.1368498046875</v>
+        <v>14.15057856445313</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.6899655492959824</v>
+        <v>0.9653809002015443</v>
       </c>
       <c r="D97">
-        <v>1.581089377403259</v>
+        <v>1.585835695266724</v>
       </c>
       <c r="E97">
-        <v>28.52</v>
+        <v>27.84</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>1.513446374511719</v>
+        <v>1.593163287353516</v>
       </c>
       <c r="J97">
-        <v>57.32</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3219,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.6877607866726091</v>
+        <v>0.9653951678655844</v>
       </c>
       <c r="D98">
-        <v>1.580186605453491</v>
+        <v>1.595342874526978</v>
       </c>
       <c r="E98">
-        <v>28.45</v>
+        <v>27.82</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3234,7 +3234,7 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>14.10230693359375</v>
+        <v>14.26348623046875</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.6876756823168392</v>
+        <v>0.9631918995781282</v>
       </c>
       <c r="D99">
-        <v>1.591689586639404</v>
+        <v>1.593737125396729</v>
       </c>
       <c r="E99">
-        <v>28.49</v>
+        <v>27.78</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>1.515528759765625</v>
+        <v>1.570468914794922</v>
       </c>
       <c r="J99">
-        <v>57.02</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3277,13 +3277,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.6888038901101171</v>
+        <v>0.9639702861287952</v>
       </c>
       <c r="D100">
-        <v>1.578758835792542</v>
+        <v>1.593812584877014</v>
       </c>
       <c r="E100">
-        <v>28.53</v>
+        <v>27.72</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3292,28 +3292,13 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>14.14080708007812</v>
+        <v>13.89189560546875</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>99</v>
-      </c>
-      <c r="C101">
-        <v>0.6886419917629883</v>
-      </c>
-      <c r="D101">
-        <v>1.601700305938721</v>
-      </c>
-      <c r="E101">
-        <v>28.44</v>
-      </c>
       <c r="G101">
         <v>0</v>
       </c>
@@ -3321,28 +3306,13 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>1.517384942626953</v>
+        <v>1.570651007080078</v>
       </c>
       <c r="J101">
-        <v>57.18</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102">
-        <v>100</v>
-      </c>
-      <c r="C102">
-        <v>0.6889308189923784</v>
-      </c>
-      <c r="D102">
-        <v>1.574463248252869</v>
-      </c>
-      <c r="E102">
-        <v>28.44</v>
-      </c>
       <c r="G102">
         <v>1</v>
       </c>
@@ -3350,28 +3320,13 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>14.15537006835937</v>
+        <v>13.89912802734375</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>101</v>
-      </c>
-      <c r="C103">
-        <v>0.6899511392137646</v>
-      </c>
-      <c r="D103">
-        <v>1.56818163394928</v>
-      </c>
-      <c r="E103">
-        <v>28.58</v>
-      </c>
       <c r="G103">
         <v>0</v>
       </c>
@@ -3379,28 +3334,13 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>1.517220989990234</v>
+        <v>1.568885577392578</v>
       </c>
       <c r="J103">
-        <v>57.02</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>102</v>
-      </c>
-      <c r="C104">
-        <v>0.6865290139628722</v>
-      </c>
-      <c r="D104">
-        <v>1.559861779212952</v>
-      </c>
-      <c r="E104">
-        <v>28.5</v>
-      </c>
       <c r="G104">
         <v>1</v>
       </c>
@@ -3408,28 +3348,13 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>14.14259453125</v>
+        <v>13.89894633789062</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>103</v>
-      </c>
-      <c r="C105">
-        <v>0.6910604908403042</v>
-      </c>
-      <c r="D105">
-        <v>1.566436648368835</v>
-      </c>
-      <c r="E105">
-        <v>28.49</v>
-      </c>
       <c r="G105">
         <v>0</v>
       </c>
@@ -3437,28 +3362,13 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>1.518346789550781</v>
+        <v>1.570002758789063</v>
       </c>
       <c r="J105">
-        <v>57.22</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106">
-        <v>1</v>
-      </c>
-      <c r="B106">
-        <v>104</v>
-      </c>
-      <c r="C106">
-        <v>0.68852698802948</v>
-      </c>
-      <c r="D106">
-        <v>1.576711177825928</v>
-      </c>
-      <c r="E106">
-        <v>28.47</v>
-      </c>
       <c r="G106">
         <v>1</v>
       </c>
@@ -3466,28 +3376,13 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>14.147887890625</v>
+        <v>13.94743686523437</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>105</v>
-      </c>
-      <c r="C107">
-        <v>0.6893292043061383</v>
-      </c>
-      <c r="D107">
-        <v>1.573424935340881</v>
-      </c>
-      <c r="E107">
-        <v>28.49</v>
-      </c>
       <c r="G107">
         <v>0</v>
       </c>
@@ -3495,28 +3390,13 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>1.518953302001953</v>
+        <v>1.57187001953125</v>
       </c>
       <c r="J107">
-        <v>56.86</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108">
-        <v>1</v>
-      </c>
-      <c r="B108">
-        <v>106</v>
-      </c>
-      <c r="C108">
-        <v>0.6902308216137168</v>
-      </c>
-      <c r="D108">
-        <v>1.571791887283325</v>
-      </c>
-      <c r="E108">
-        <v>28.42</v>
-      </c>
       <c r="G108">
         <v>1</v>
       </c>
@@ -3524,28 +3404,13 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>14.15823969726562</v>
+        <v>13.91883374023437</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109">
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <v>107</v>
-      </c>
-      <c r="C109">
-        <v>0.6888905135931167</v>
-      </c>
-      <c r="D109">
-        <v>1.559967994689941</v>
-      </c>
-      <c r="E109">
-        <v>28.58</v>
-      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -3553,28 +3418,13 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>1.519494525146484</v>
+        <v>1.571012615966797</v>
       </c>
       <c r="J109">
-        <v>57.18</v>
+        <v>55.58</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110">
-        <v>108</v>
-      </c>
-      <c r="C110">
-        <v>0.6893632353934567</v>
-      </c>
-      <c r="D110">
-        <v>1.568880677223206</v>
-      </c>
-      <c r="E110">
-        <v>28.54</v>
-      </c>
       <c r="G110">
         <v>1</v>
       </c>
@@ -3582,28 +3432,13 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>14.15907685546875</v>
+        <v>13.93405732421875</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>109</v>
-      </c>
-      <c r="C111">
-        <v>0.6917824956168116</v>
-      </c>
-      <c r="D111">
-        <v>1.572665929794312</v>
-      </c>
-      <c r="E111">
-        <v>28.47</v>
-      </c>
       <c r="G111">
         <v>0</v>
       </c>
@@ -3611,10 +3446,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>1.520928253173828</v>
+        <v>1.572132763671875</v>
       </c>
       <c r="J111">
-        <v>56.94</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3625,7 +3460,7 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>14.20507255859375</v>
+        <v>13.95973364257813</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -3639,10 +3474,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>1.521632379150391</v>
+        <v>1.573263299560547</v>
       </c>
       <c r="J113">
-        <v>57.08</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -3653,7 +3488,7 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>14.189077734375</v>
+        <v>13.91265771484375</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -3667,10 +3502,10 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>1.5238947265625</v>
+        <v>1.571860388183594</v>
       </c>
       <c r="J115">
-        <v>56.92</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="116" spans="7:10">
@@ -3681,7 +3516,7 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>14.201743359375</v>
+        <v>13.97603291015625</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -3695,10 +3530,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>1.523806372070313</v>
+        <v>1.570681176757813</v>
       </c>
       <c r="J117">
-        <v>56.58</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -3709,7 +3544,7 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>14.21375029296875</v>
+        <v>13.97277670898437</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -3723,10 +3558,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>1.523689935302734</v>
+        <v>1.571622796630859</v>
       </c>
       <c r="J119">
-        <v>56.92</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -3737,7 +3572,7 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>14.20754555664062</v>
+        <v>13.8492236328125</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -3751,10 +3586,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>1.523566186523438</v>
+        <v>1.570473504638672</v>
       </c>
       <c r="J121">
-        <v>56.82</v>
+        <v>55.8</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -3765,7 +3600,7 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>14.2194091796875</v>
+        <v>13.85966435546875</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -3779,10 +3614,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>1.52585068359375</v>
+        <v>1.573090484619141</v>
       </c>
       <c r="J123">
-        <v>56.84</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -3793,7 +3628,7 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>14.24601499023438</v>
+        <v>13.8869642578125</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -3807,10 +3642,10 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>1.526473699951172</v>
+        <v>1.571704779052734</v>
       </c>
       <c r="J125">
-        <v>56.96</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="126" spans="7:10">
@@ -3821,7 +3656,7 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>14.21241870117188</v>
+        <v>13.9136009765625</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -3835,10 +3670,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>1.526209173583984</v>
+        <v>1.570536175537109</v>
       </c>
       <c r="J127">
-        <v>56.86</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -3849,7 +3684,7 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>14.2190248046875</v>
+        <v>13.88865561523438</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -3863,10 +3698,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>1.518355145263672</v>
+        <v>1.571023345947266</v>
       </c>
       <c r="J129">
-        <v>56.84</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -3877,7 +3712,7 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>14.18075791015625</v>
+        <v>13.90290048828125</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -3891,10 +3726,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>1.519622399902344</v>
+        <v>1.5696783203125</v>
       </c>
       <c r="J131">
-        <v>57.16</v>
+        <v>55.52</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -3905,7 +3740,7 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>14.20097783203125</v>
+        <v>13.89174438476562</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -3919,10 +3754,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>1.520579095458984</v>
+        <v>1.569032531738281</v>
       </c>
       <c r="J133">
-        <v>57.04</v>
+        <v>55.92</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -3933,7 +3768,7 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>14.1675630859375</v>
+        <v>13.89682983398438</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -3947,10 +3782,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>1.519455841064453</v>
+        <v>1.570456127929688</v>
       </c>
       <c r="J135">
-        <v>57.02</v>
+        <v>55.72</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -3961,7 +3796,7 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>14.16732661132813</v>
+        <v>13.89110561523438</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -3975,10 +3810,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>1.521378979492187</v>
+        <v>1.569321801757813</v>
       </c>
       <c r="J137">
-        <v>56.9</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -3989,7 +3824,7 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>14.21372236328125</v>
+        <v>13.89791083984375</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -4003,10 +3838,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>1.519254998779297</v>
+        <v>1.572126470947266</v>
       </c>
       <c r="J139">
-        <v>56.84</v>
+        <v>55.72</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -4017,7 +3852,7 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>14.144748828125</v>
+        <v>13.88077900390625</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -4031,10 +3866,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>1.522185089111328</v>
+        <v>1.571818853759766</v>
       </c>
       <c r="J141">
-        <v>56.98</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -4045,7 +3880,7 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>14.228377734375</v>
+        <v>13.86031469726563</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -4059,10 +3894,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>1.520505865478516</v>
+        <v>1.573502349853516</v>
       </c>
       <c r="J143">
-        <v>57.08</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -4073,7 +3908,7 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>14.18080991210937</v>
+        <v>13.86499389648437</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -4087,10 +3922,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>1.520450701904297</v>
+        <v>1.570199908447266</v>
       </c>
       <c r="J145">
-        <v>56.88</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -4101,7 +3936,7 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>14.199694140625</v>
+        <v>13.9025583984375</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -4115,10 +3950,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>1.520879901123047</v>
+        <v>1.571956005859375</v>
       </c>
       <c r="J147">
-        <v>57.22</v>
+        <v>55.62</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -4129,7 +3964,7 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>14.20831103515625</v>
+        <v>13.92014443359375</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -4143,10 +3978,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>1.518902630615234</v>
+        <v>1.572690557861328</v>
       </c>
       <c r="J149">
-        <v>57.02</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -4157,7 +3992,7 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>14.16329604492187</v>
+        <v>13.88557421875</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -4171,10 +4006,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>1.518093603515625</v>
+        <v>1.571882397460937</v>
       </c>
       <c r="J151">
-        <v>57.02</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -4185,7 +4020,7 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>14.15089409179688</v>
+        <v>13.8853205078125</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -4199,10 +4034,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>1.519132611083984</v>
+        <v>1.570799627685547</v>
       </c>
       <c r="J153">
-        <v>56.8</v>
+        <v>55.74</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -4213,7 +4048,7 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>14.17158217773438</v>
+        <v>13.89559111328125</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -4227,10 +4062,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>1.518898303222656</v>
+        <v>1.571469287109375</v>
       </c>
       <c r="J155">
-        <v>57.1</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -4241,7 +4076,7 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>14.14947631835937</v>
+        <v>13.87749047851563</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -4255,10 +4090,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>1.518615594482422</v>
+        <v>1.569704705810547</v>
       </c>
       <c r="J157">
-        <v>57.06</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -4269,7 +4104,7 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>14.16198002929688</v>
+        <v>13.88385620117188</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -4283,10 +4118,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>1.519624035644531</v>
+        <v>1.573424676513672</v>
       </c>
       <c r="J159">
-        <v>56.94</v>
+        <v>55.84</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -4297,7 +4132,7 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>14.17669223632812</v>
+        <v>13.89917641601562</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -4311,10 +4146,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>1.519811322021484</v>
+        <v>1.572259313964844</v>
       </c>
       <c r="J161">
-        <v>57.02</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -4325,7 +4160,7 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>14.17888374023437</v>
+        <v>13.90452119140625</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -4339,10 +4174,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>1.520085906982422</v>
+        <v>1.571188116455078</v>
       </c>
       <c r="J163">
-        <v>56.9</v>
+        <v>55.78</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -4353,7 +4188,7 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>14.15411381835938</v>
+        <v>13.8952333984375</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -4367,10 +4202,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>1.519092114257812</v>
+        <v>1.571890277099609</v>
       </c>
       <c r="J165">
-        <v>57.02</v>
+        <v>55.38</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -4381,7 +4216,7 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>14.16239184570312</v>
+        <v>13.88186420898437</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -4395,10 +4230,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>1.517947863769531</v>
+        <v>1.572521551513672</v>
       </c>
       <c r="J167">
-        <v>57.02</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -4409,7 +4244,7 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>14.14540161132813</v>
+        <v>13.86314697265625</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4423,10 +4258,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>1.518727563476562</v>
+        <v>1.571007757568359</v>
       </c>
       <c r="J169">
-        <v>56.92</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -4437,7 +4272,7 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>14.17122143554687</v>
+        <v>13.87812319335938</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -4451,10 +4286,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>1.519300872802734</v>
+        <v>1.574360461425781</v>
       </c>
       <c r="J171">
-        <v>56.9</v>
+        <v>55.54</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -4465,7 +4300,7 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>14.19902172851562</v>
+        <v>13.87019921875</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -4479,10 +4314,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>1.519056823730469</v>
+        <v>1.572355737304687</v>
       </c>
       <c r="J173">
-        <v>57.06</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -4493,7 +4328,7 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>14.17502255859375</v>
+        <v>13.88509267578125</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -4507,10 +4342,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>1.519837017822266</v>
+        <v>1.571679998779297</v>
       </c>
       <c r="J175">
-        <v>57.12</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -4521,7 +4356,7 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>14.2011330078125</v>
+        <v>13.88240849609375</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -4535,10 +4370,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>1.519652478027344</v>
+        <v>1.571709051513672</v>
       </c>
       <c r="J177">
-        <v>57</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -4549,7 +4384,7 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>14.16609658203125</v>
+        <v>13.90074365234375</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -4563,10 +4398,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>1.518990191650391</v>
+        <v>1.572734417724609</v>
       </c>
       <c r="J179">
-        <v>56.92</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -4577,7 +4412,7 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>14.17190463867188</v>
+        <v>13.87995112304687</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -4591,10 +4426,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>1.51895380859375</v>
+        <v>1.572763507080078</v>
       </c>
       <c r="J181">
-        <v>57</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -4605,7 +4440,7 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>14.16577055664063</v>
+        <v>13.852894140625</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -4619,10 +4454,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>1.517454968261719</v>
+        <v>1.573147979736328</v>
       </c>
       <c r="J183">
-        <v>57.14</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -4633,7 +4468,7 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>14.13795239257812</v>
+        <v>13.90257182617188</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -4647,10 +4482,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>1.518191040039063</v>
+        <v>1.571405187988281</v>
       </c>
       <c r="J185">
-        <v>57</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -4661,7 +4496,7 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>14.14937236328125</v>
+        <v>13.87396513671875</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -4675,10 +4510,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>1.519794476318359</v>
+        <v>1.572902520751953</v>
       </c>
       <c r="J187">
-        <v>56.82</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -4689,7 +4524,7 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>14.136003515625</v>
+        <v>13.89042700195312</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -4703,10 +4538,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>1.520058978271484</v>
+        <v>1.573206634521484</v>
       </c>
       <c r="J189">
-        <v>57.1</v>
+        <v>55.76</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -4717,7 +4552,7 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>14.14877944335938</v>
+        <v>13.88797749023438</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -4731,10 +4566,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>1.520114337158203</v>
+        <v>1.571713830566406</v>
       </c>
       <c r="J191">
-        <v>57.04</v>
+        <v>55.68</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -4745,7 +4580,7 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>14.16415307617187</v>
+        <v>13.87408349609375</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -4759,10 +4594,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>1.517875573730469</v>
+        <v>1.571332507324219</v>
       </c>
       <c r="J193">
-        <v>56.9</v>
+        <v>55.64</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -4773,7 +4608,7 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>14.16131748046875</v>
+        <v>13.88162763671875</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -4787,10 +4622,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>1.518776434326172</v>
+        <v>1.572062841796875</v>
       </c>
       <c r="J195">
-        <v>56.98</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -4801,7 +4636,7 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>14.16476899414062</v>
+        <v>13.861228125</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -4815,10 +4650,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>1.519817333984375</v>
+        <v>1.572410241699219</v>
       </c>
       <c r="J197">
-        <v>57.06</v>
+        <v>55.44</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -4829,317 +4664,9 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>14.20423208007812</v>
+        <v>13.8652875</v>
       </c>
       <c r="J198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="7:10">
-      <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>99</v>
-      </c>
-      <c r="I199">
-        <v>1.519021899414063</v>
-      </c>
-      <c r="J199">
-        <v>56.88</v>
-      </c>
-    </row>
-    <row r="200" spans="7:10">
-      <c r="G200">
-        <v>1</v>
-      </c>
-      <c r="H200">
-        <v>99</v>
-      </c>
-      <c r="I200">
-        <v>14.1766140625</v>
-      </c>
-      <c r="J200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="7:10">
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>100</v>
-      </c>
-      <c r="I201">
-        <v>1.519329925537109</v>
-      </c>
-      <c r="J201">
-        <v>56.88</v>
-      </c>
-    </row>
-    <row r="202" spans="7:10">
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202">
-        <v>100</v>
-      </c>
-      <c r="I202">
-        <v>14.17951635742187</v>
-      </c>
-      <c r="J202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="7:10">
-      <c r="G203">
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <v>101</v>
-      </c>
-      <c r="I203">
-        <v>1.52063671875</v>
-      </c>
-      <c r="J203">
-        <v>57.16</v>
-      </c>
-    </row>
-    <row r="204" spans="7:10">
-      <c r="G204">
-        <v>1</v>
-      </c>
-      <c r="H204">
-        <v>101</v>
-      </c>
-      <c r="I204">
-        <v>14.20359619140625</v>
-      </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="7:10">
-      <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>102</v>
-      </c>
-      <c r="I205">
-        <v>1.518814080810547</v>
-      </c>
-      <c r="J205">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="206" spans="7:10">
-      <c r="G206">
-        <v>1</v>
-      </c>
-      <c r="H206">
-        <v>102</v>
-      </c>
-      <c r="I206">
-        <v>14.18337177734375</v>
-      </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="7:10">
-      <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>103</v>
-      </c>
-      <c r="I207">
-        <v>1.51872421875</v>
-      </c>
-      <c r="J207">
-        <v>56.98</v>
-      </c>
-    </row>
-    <row r="208" spans="7:10">
-      <c r="G208">
-        <v>1</v>
-      </c>
-      <c r="H208">
-        <v>103</v>
-      </c>
-      <c r="I208">
-        <v>14.16861293945312</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="7:10">
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>104</v>
-      </c>
-      <c r="I209">
-        <v>1.518987023925781</v>
-      </c>
-      <c r="J209">
-        <v>56.94</v>
-      </c>
-    </row>
-    <row r="210" spans="7:10">
-      <c r="G210">
-        <v>1</v>
-      </c>
-      <c r="H210">
-        <v>104</v>
-      </c>
-      <c r="I210">
-        <v>14.17885131835937</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="7:10">
-      <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>105</v>
-      </c>
-      <c r="I211">
-        <v>1.518225146484375</v>
-      </c>
-      <c r="J211">
-        <v>56.98</v>
-      </c>
-    </row>
-    <row r="212" spans="7:10">
-      <c r="G212">
-        <v>1</v>
-      </c>
-      <c r="H212">
-        <v>105</v>
-      </c>
-      <c r="I212">
-        <v>14.15174267578125</v>
-      </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="7:10">
-      <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>106</v>
-      </c>
-      <c r="I213">
-        <v>1.519922937011719</v>
-      </c>
-      <c r="J213">
-        <v>56.84</v>
-      </c>
-    </row>
-    <row r="214" spans="7:10">
-      <c r="G214">
-        <v>1</v>
-      </c>
-      <c r="H214">
-        <v>106</v>
-      </c>
-      <c r="I214">
-        <v>14.16892094726562</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="7:10">
-      <c r="G215">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>107</v>
-      </c>
-      <c r="I215">
-        <v>1.519311987304687</v>
-      </c>
-      <c r="J215">
-        <v>57.16</v>
-      </c>
-    </row>
-    <row r="216" spans="7:10">
-      <c r="G216">
-        <v>1</v>
-      </c>
-      <c r="H216">
-        <v>107</v>
-      </c>
-      <c r="I216">
-        <v>14.14671381835938</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="7:10">
-      <c r="G217">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>108</v>
-      </c>
-      <c r="I217">
-        <v>1.519777996826172</v>
-      </c>
-      <c r="J217">
-        <v>57.08</v>
-      </c>
-    </row>
-    <row r="218" spans="7:10">
-      <c r="G218">
-        <v>1</v>
-      </c>
-      <c r="H218">
-        <v>108</v>
-      </c>
-      <c r="I218">
-        <v>14.18370087890625</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="7:10">
-      <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>109</v>
-      </c>
-      <c r="I219">
-        <v>1.519648950195313</v>
-      </c>
-      <c r="J219">
-        <v>56.94</v>
-      </c>
-    </row>
-    <row r="220" spans="7:10">
-      <c r="G220">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>109</v>
-      </c>
-      <c r="I220">
-        <v>14.16624521484375</v>
-      </c>
-      <c r="J220">
         <v>0</v>
       </c>
     </row>
@@ -5154,7 +4681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K204"/>
+  <dimension ref="A1:K210"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5213,13 +4740,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.05790010806733</v>
+        <v>11.08199111128275</v>
       </c>
       <c r="D3">
-        <v>8.906261444091797</v>
+        <v>8.96863842010498</v>
       </c>
       <c r="E3">
-        <v>20.17</v>
+        <v>18.24</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5228,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>3.891096643066406</v>
+        <v>3.989260363769531</v>
       </c>
       <c r="J3">
-        <v>8.779999999999999</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5242,13 +4769,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.317234815749448</v>
+        <v>8.390134975973483</v>
       </c>
       <c r="D4">
-        <v>8.402934074401855</v>
+        <v>8.285331726074219</v>
       </c>
       <c r="E4">
-        <v>23.85</v>
+        <v>23.69</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -5257,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>2.619688323974609</v>
+        <v>2.67363134765625</v>
       </c>
       <c r="J4">
-        <v>31.56</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5271,13 +4798,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>7.818291119769611</v>
+        <v>7.901396764063202</v>
       </c>
       <c r="D5">
-        <v>8.020071029663086</v>
+        <v>8.105348587036133</v>
       </c>
       <c r="E5">
-        <v>27.02</v>
+        <v>24.86</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -5286,10 +4813,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3.684918725585938</v>
+        <v>3.577684460449219</v>
       </c>
       <c r="J5">
-        <v>6.78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5300,13 +4827,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.551124922997128</v>
+        <v>7.651682604730657</v>
       </c>
       <c r="D6">
-        <v>7.853468418121338</v>
+        <v>8.14423656463623</v>
       </c>
       <c r="E6">
-        <v>29.41</v>
+        <v>24.18</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5315,10 +4842,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2.281229705810547</v>
+        <v>2.245298199462891</v>
       </c>
       <c r="J6">
-        <v>40.92</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5329,13 +4856,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.370747798312027</v>
+        <v>7.472281924391215</v>
       </c>
       <c r="D7">
-        <v>7.760737895965576</v>
+        <v>7.821676254272461</v>
       </c>
       <c r="E7">
-        <v>29.84</v>
+        <v>27.65</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5344,10 +4871,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>3.514751611328125</v>
+        <v>3.661215856933594</v>
       </c>
       <c r="J7">
-        <v>7.74</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5358,13 +4885,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.232880022673481</v>
+        <v>7.327800151521125</v>
       </c>
       <c r="D8">
-        <v>7.750668048858643</v>
+        <v>7.87910270690918</v>
       </c>
       <c r="E8">
-        <v>29.64</v>
+        <v>26.36</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -5373,10 +4900,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2.03394389038086</v>
+        <v>2.121877667236328</v>
       </c>
       <c r="J8">
-        <v>46.3</v>
+        <v>44.96</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5387,13 +4914,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>7.113145520201827</v>
+        <v>7.208402490193865</v>
       </c>
       <c r="D9">
-        <v>7.803407192230225</v>
+        <v>7.652097702026367</v>
       </c>
       <c r="E9">
-        <v>28.63</v>
+        <v>29.27</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -5402,10 +4929,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>3.311747485351562</v>
+        <v>3.820913305664063</v>
       </c>
       <c r="J9">
-        <v>8.640000000000001</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5416,13 +4943,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>7.017799875377554</v>
+        <v>7.105962698438526</v>
       </c>
       <c r="D10">
-        <v>7.709053993225098</v>
+        <v>7.757811069488525</v>
       </c>
       <c r="E10">
-        <v>30.36</v>
+        <v>28.69</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -5431,10 +4958,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>1.913726696777344</v>
+        <v>2.136757110595703</v>
       </c>
       <c r="J10">
-        <v>50.18</v>
+        <v>45.32</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5445,13 +4972,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.916610629157683</v>
+        <v>7.020196653045384</v>
       </c>
       <c r="D11">
-        <v>7.789538860321045</v>
+        <v>7.888180255889893</v>
       </c>
       <c r="E11">
-        <v>29.21</v>
+        <v>27.15</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5460,10 +4987,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>3.358535070800781</v>
+        <v>3.561745581054688</v>
       </c>
       <c r="J11">
-        <v>7.74</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5474,13 +5001,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>6.841503556850737</v>
+        <v>6.932811981808823</v>
       </c>
       <c r="D12">
-        <v>7.725851058959961</v>
+        <v>7.661282062530518</v>
       </c>
       <c r="E12">
-        <v>29.89</v>
+        <v>29.39</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -5489,10 +5016,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>1.838283605957031</v>
+        <v>1.884939935302734</v>
       </c>
       <c r="J12">
-        <v>51.94</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5503,13 +5030,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>6.75251040838461</v>
+        <v>6.840249871785661</v>
       </c>
       <c r="D13">
-        <v>7.816587924957275</v>
+        <v>7.729124069213867</v>
       </c>
       <c r="E13">
-        <v>30.16</v>
+        <v>28.2</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -5518,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>3.4169673828125</v>
+        <v>3.759004541015625</v>
       </c>
       <c r="J13">
-        <v>6.06</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5532,13 +5059,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>6.688085104511902</v>
+        <v>6.773883895536439</v>
       </c>
       <c r="D14">
-        <v>7.697348594665527</v>
+        <v>7.832962989807129</v>
       </c>
       <c r="E14">
-        <v>30.87</v>
+        <v>29.06</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -5547,10 +5074,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>1.820094171142578</v>
+        <v>1.926156604003906</v>
       </c>
       <c r="J14">
-        <v>53.22</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5561,13 +5088,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>6.601976023311108</v>
+        <v>6.693442433281282</v>
       </c>
       <c r="D15">
-        <v>7.789938449859619</v>
+        <v>7.66788387298584</v>
       </c>
       <c r="E15">
-        <v>29.67</v>
+        <v>29.24</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -5576,10 +5103,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>3.589754284667969</v>
+        <v>3.624033581542969</v>
       </c>
       <c r="J15">
-        <v>4.92</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5590,13 +5117,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6.545785878611877</v>
+        <v>6.636402362215835</v>
       </c>
       <c r="D16">
-        <v>7.753931999206543</v>
+        <v>7.863936424255371</v>
       </c>
       <c r="E16">
-        <v>31.15</v>
+        <v>28.55</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -5605,10 +5132,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>1.862122644042969</v>
+        <v>1.749390472412109</v>
       </c>
       <c r="J16">
-        <v>52.34</v>
+        <v>54.26</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5619,13 +5146,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>6.494178421729434</v>
+        <v>6.580157490958155</v>
       </c>
       <c r="D17">
-        <v>7.679534435272217</v>
+        <v>7.797301292419434</v>
       </c>
       <c r="E17">
-        <v>31.35</v>
+        <v>28.54</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -5634,10 +5161,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>3.334104235839844</v>
+        <v>3.642798461914063</v>
       </c>
       <c r="J17">
-        <v>7.48</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5648,13 +5175,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>6.436072282031574</v>
+        <v>6.518516477230376</v>
       </c>
       <c r="D18">
-        <v>7.914096355438232</v>
+        <v>7.758701324462891</v>
       </c>
       <c r="E18">
-        <v>29.6</v>
+        <v>28.59</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -5663,10 +5190,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>1.825460327148438</v>
+        <v>1.844834020996094</v>
       </c>
       <c r="J18">
-        <v>53.24</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5677,13 +5204,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.390524016017407</v>
+        <v>6.467335017381516</v>
       </c>
       <c r="D19">
-        <v>7.923168659210205</v>
+        <v>7.787293434143066</v>
       </c>
       <c r="E19">
-        <v>29.95</v>
+        <v>29.26</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -5692,10 +5219,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>3.515330078125</v>
+        <v>3.743342041015625</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5706,13 +5233,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.344596432373587</v>
+        <v>6.938267382900272</v>
       </c>
       <c r="D20">
-        <v>7.808711051940918</v>
+        <v>7.472174644470215</v>
       </c>
       <c r="E20">
-        <v>31.15</v>
+        <v>31.7</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -5721,10 +5248,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>1.863084741210937</v>
+        <v>1.96037587890625</v>
       </c>
       <c r="J20">
-        <v>52.42</v>
+        <v>50.86</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5735,13 +5262,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>6.304234694590611</v>
+        <v>6.865680243061707</v>
       </c>
       <c r="D21">
-        <v>7.869467258453369</v>
+        <v>7.468723297119141</v>
       </c>
       <c r="E21">
-        <v>30.7</v>
+        <v>31.49</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -5750,10 +5277,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>3.455980871582031</v>
+        <v>3.571598046875</v>
       </c>
       <c r="J21">
-        <v>5.38</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5764,13 +5291,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>6.27049803100856</v>
+        <v>6.83247691551141</v>
       </c>
       <c r="D22">
-        <v>7.883800983428955</v>
+        <v>7.480146408081055</v>
       </c>
       <c r="E22">
-        <v>30.89</v>
+        <v>31.38</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -5779,10 +5306,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>1.841326458740234</v>
+        <v>1.7825810546875</v>
       </c>
       <c r="J22">
-        <v>54.4</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5793,13 +5320,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>6.234726652634882</v>
+        <v>6.796720382386604</v>
       </c>
       <c r="D23">
-        <v>7.978796482086182</v>
+        <v>7.488236427307129</v>
       </c>
       <c r="E23">
-        <v>30.08</v>
+        <v>31.45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -5808,10 +5335,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>3.483603381347656</v>
+        <v>3.670483386230469</v>
       </c>
       <c r="J23">
-        <v>6.86</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5822,13 +5349,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>6.209653601182246</v>
+        <v>6.761471279954488</v>
       </c>
       <c r="D24">
-        <v>8.019702911376953</v>
+        <v>7.500258445739746</v>
       </c>
       <c r="E24">
-        <v>28.06</v>
+        <v>31.37</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -5837,10 +5364,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>1.885727642822266</v>
+        <v>1.828215197753906</v>
       </c>
       <c r="J24">
-        <v>53.46</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5851,13 +5378,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>6.192372279884541</v>
+        <v>6.732685384497178</v>
       </c>
       <c r="D25">
-        <v>7.880305290222168</v>
+        <v>7.500674247741699</v>
       </c>
       <c r="E25">
-        <v>30.86</v>
+        <v>30.94</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5866,10 +5393,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>3.367611047363281</v>
+        <v>3.66766318359375</v>
       </c>
       <c r="J25">
-        <v>6.48</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5880,13 +5407,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>6.161076440220386</v>
+        <v>6.698133337814196</v>
       </c>
       <c r="D26">
-        <v>7.804238319396973</v>
+        <v>7.524328231811523</v>
       </c>
       <c r="E26">
-        <v>31.76</v>
+        <v>31.4</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -5895,10 +5422,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>1.822792596435547</v>
+        <v>1.873230065917969</v>
       </c>
       <c r="J26">
-        <v>55.26</v>
+        <v>54.14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5909,13 +5436,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>6.142802989588374</v>
+        <v>6.675014289079514</v>
       </c>
       <c r="D27">
-        <v>7.891607284545898</v>
+        <v>7.526124954223633</v>
       </c>
       <c r="E27">
-        <v>30.87</v>
+        <v>31.41</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5924,10 +5451,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>3.483251672363281</v>
+        <v>3.575729431152344</v>
       </c>
       <c r="J27">
-        <v>5.58</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5938,13 +5465,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>6.29106557896707</v>
+        <v>6.644405559100936</v>
       </c>
       <c r="D28">
-        <v>7.528095722198486</v>
+        <v>7.547482013702393</v>
       </c>
       <c r="E28">
-        <v>33.17</v>
+        <v>30.96</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -5953,10 +5480,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>1.905696331787109</v>
+        <v>1.818707135009766</v>
       </c>
       <c r="J28">
-        <v>53.76</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5967,13 +5494,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>6.22812176594692</v>
+        <v>6.611512521726895</v>
       </c>
       <c r="D29">
-        <v>7.546482086181641</v>
+        <v>7.527031421661377</v>
       </c>
       <c r="E29">
-        <v>33.88</v>
+        <v>30.89</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5982,10 +5509,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>3.466479577636719</v>
+        <v>3.553250402832031</v>
       </c>
       <c r="J29">
-        <v>6.34</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5996,13 +5523,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>6.204767615394255</v>
+        <v>6.582193492788129</v>
       </c>
       <c r="D30">
-        <v>7.55839204788208</v>
+        <v>7.552644729614258</v>
       </c>
       <c r="E30">
-        <v>33.65</v>
+        <v>31.41</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -6011,10 +5538,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>1.859392736816406</v>
+        <v>1.96162138671875</v>
       </c>
       <c r="J30">
-        <v>55.96</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6025,13 +5552,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>6.187887504037502</v>
+        <v>6.557097823218962</v>
       </c>
       <c r="D31">
-        <v>7.571835041046143</v>
+        <v>7.571096420288086</v>
       </c>
       <c r="E31">
-        <v>33.74</v>
+        <v>30.92</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6040,10 +5567,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>3.471888452148438</v>
+        <v>3.749603369140625</v>
       </c>
       <c r="J31">
-        <v>6.44</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6054,13 +5581,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>6.17514175229368</v>
+        <v>6.802601843808604</v>
       </c>
       <c r="D32">
-        <v>7.578094959259033</v>
+        <v>7.464571952819824</v>
       </c>
       <c r="E32">
-        <v>33.82</v>
+        <v>31.57</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -6069,10 +5596,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>1.803617883300781</v>
+        <v>1.863345440673828</v>
       </c>
       <c r="J32">
-        <v>56.26</v>
+        <v>53.84</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6083,13 +5610,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>6.162365352157998</v>
+        <v>6.789296112229339</v>
       </c>
       <c r="D33">
-        <v>7.600803852081299</v>
+        <v>7.45869779586792</v>
       </c>
       <c r="E33">
-        <v>33.55</v>
+        <v>31.55</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6098,10 +5625,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>3.471303247070312</v>
+        <v>3.67035712890625</v>
       </c>
       <c r="J33">
-        <v>7.34</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6112,13 +5639,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>6.146757830560735</v>
+        <v>6.775026481763452</v>
       </c>
       <c r="D34">
-        <v>7.610614776611328</v>
+        <v>7.464507102966309</v>
       </c>
       <c r="E34">
-        <v>33.8</v>
+        <v>31.69</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -6127,10 +5654,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>2.032747760009765</v>
+        <v>1.882135601806641</v>
       </c>
       <c r="J34">
-        <v>51.86</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6141,13 +5668,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>6.134117430290289</v>
+        <v>6.768145185656252</v>
       </c>
       <c r="D35">
-        <v>7.61967945098877</v>
+        <v>7.472721576690674</v>
       </c>
       <c r="E35">
-        <v>33.39</v>
+        <v>31.69</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6156,10 +5683,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>3.414445190429687</v>
+        <v>3.662902880859375</v>
       </c>
       <c r="J35">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6170,13 +5697,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>6.124156167021895</v>
+        <v>6.764338767634029</v>
       </c>
       <c r="D36">
-        <v>7.634357929229736</v>
+        <v>7.46926212310791</v>
       </c>
       <c r="E36">
-        <v>33.81</v>
+        <v>31.51</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -6185,10 +5712,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>2.025866137695313</v>
+        <v>1.883091369628906</v>
       </c>
       <c r="J36">
-        <v>52.2</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6199,13 +5726,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>6.112143060802358</v>
+        <v>6.758075811166679</v>
       </c>
       <c r="D37">
-        <v>7.656723499298096</v>
+        <v>7.45980167388916</v>
       </c>
       <c r="E37">
-        <v>33.15</v>
+        <v>31.82</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -6214,10 +5741,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>3.271840551757812</v>
+        <v>3.364508117675781</v>
       </c>
       <c r="J37">
-        <v>8.24</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6228,13 +5755,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>6.09818620175387</v>
+        <v>6.742807489580812</v>
       </c>
       <c r="D38">
-        <v>7.639497756958008</v>
+        <v>7.46111011505127</v>
       </c>
       <c r="E38">
-        <v>33.22</v>
+        <v>31.77</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -6243,10 +5770,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>1.948122241210938</v>
+        <v>1.648942156982422</v>
       </c>
       <c r="J38">
-        <v>54.06</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6257,13 +5784,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>6.210959485146851</v>
+        <v>6.73757791519165</v>
       </c>
       <c r="D39">
-        <v>7.527624607086182</v>
+        <v>7.464432239532471</v>
       </c>
       <c r="E39">
-        <v>33.84</v>
+        <v>31.85</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -6272,10 +5799,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>3.420754479980469</v>
+        <v>3.429927856445313</v>
       </c>
       <c r="J39">
-        <v>6.64</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6286,13 +5813,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>6.204757732627666</v>
+        <v>6.732615078445029</v>
       </c>
       <c r="D40">
-        <v>7.525383949279785</v>
+        <v>7.480427265167236</v>
       </c>
       <c r="E40">
-        <v>33.61</v>
+        <v>31.69</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -6301,10 +5828,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>1.961529357910156</v>
+        <v>1.638278210449219</v>
       </c>
       <c r="J40">
-        <v>54.76</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6315,13 +5842,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>6.194546066554246</v>
+        <v>6.721017398665436</v>
       </c>
       <c r="D41">
-        <v>7.53488302230835</v>
+        <v>7.465353488922119</v>
       </c>
       <c r="E41">
-        <v>33.92</v>
+        <v>31.7</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -6330,10 +5857,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>3.239008679199219</v>
+        <v>3.371432287597656</v>
       </c>
       <c r="J41">
-        <v>7.78</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -6344,13 +5871,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>6.191354823323477</v>
+        <v>6.712647665918401</v>
       </c>
       <c r="D42">
-        <v>7.541853427886963</v>
+        <v>7.478896141052246</v>
       </c>
       <c r="E42">
-        <v>34.02</v>
+        <v>31.85</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -6359,10 +5886,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>1.996194390869141</v>
+        <v>1.6560876953125</v>
       </c>
       <c r="J42">
-        <v>54</v>
+        <v>57.42</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6373,13 +5900,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>6.183642581500838</v>
+        <v>6.70791388401943</v>
       </c>
       <c r="D43">
-        <v>7.543024063110352</v>
+        <v>7.47605037689209</v>
       </c>
       <c r="E43">
-        <v>33.93</v>
+        <v>31.69</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -6388,10 +5915,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>3.386950561523438</v>
+        <v>3.419182006835937</v>
       </c>
       <c r="J43">
-        <v>6.68</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -6402,13 +5929,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>6.177899761537535</v>
+        <v>6.775404005979015</v>
       </c>
       <c r="D44">
-        <v>7.537522315979004</v>
+        <v>7.463685989379883</v>
       </c>
       <c r="E44">
-        <v>33.94</v>
+        <v>31.48</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -6417,10 +5944,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>2.100219976806641</v>
+        <v>1.650210668945312</v>
       </c>
       <c r="J44">
-        <v>53.48</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6431,13 +5958,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>6.174943489311016</v>
+        <v>6.7706925932285</v>
       </c>
       <c r="D45">
-        <v>7.548444747924805</v>
+        <v>7.469307422637939</v>
       </c>
       <c r="E45">
-        <v>33.63</v>
+        <v>32.03</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -6446,10 +5973,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>3.472267529296875</v>
+        <v>3.368488916015625</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6460,13 +5987,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>6.169720949324886</v>
+        <v>6.766923098437554</v>
       </c>
       <c r="D46">
-        <v>7.55329704284668</v>
+        <v>7.460919380187988</v>
       </c>
       <c r="E46">
-        <v>33.82</v>
+        <v>31.51</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -6475,10 +6002,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>2.136955541992188</v>
+        <v>1.659419024658203</v>
       </c>
       <c r="J46">
-        <v>51.12</v>
+        <v>56.78</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6489,13 +6016,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>6.164277996637125</v>
+        <v>6.76620559354799</v>
       </c>
       <c r="D47">
-        <v>7.550647258758545</v>
+        <v>7.458510398864746</v>
       </c>
       <c r="E47">
-        <v>33.93</v>
+        <v>31.67</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -6504,10 +6031,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>3.335595068359375</v>
+        <v>3.427313903808594</v>
       </c>
       <c r="J47">
-        <v>6.78</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6518,13 +6045,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>6.15889825652131</v>
+        <v>6.763628276048508</v>
       </c>
       <c r="D48">
-        <v>7.567947864532471</v>
+        <v>7.459260940551758</v>
       </c>
       <c r="E48">
-        <v>33.73999999999999</v>
+        <v>31.76</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -6533,10 +6060,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>1.982955633544922</v>
+        <v>1.663805572509766</v>
       </c>
       <c r="J48">
-        <v>54.94</v>
+        <v>57.06</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6547,13 +6074,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>6.156615565308427</v>
+        <v>6.765528493222937</v>
       </c>
       <c r="D49">
-        <v>7.563193798065186</v>
+        <v>7.461302757263184</v>
       </c>
       <c r="E49">
-        <v>34.02</v>
+        <v>31.55</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -6562,10 +6089,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>3.295499768066406</v>
+        <v>3.400343591308594</v>
       </c>
       <c r="J49">
-        <v>8.34</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6576,13 +6103,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>6.150239332587318</v>
+        <v>6.76352383183167</v>
       </c>
       <c r="D50">
-        <v>7.577191352844238</v>
+        <v>7.462749004364014</v>
       </c>
       <c r="E50">
-        <v>33.8</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -6591,10 +6118,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>1.949741961669922</v>
+        <v>1.682313696289063</v>
       </c>
       <c r="J50">
-        <v>55.18</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6605,13 +6132,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>6.191534717526056</v>
+        <v>6.76139679208266</v>
       </c>
       <c r="D51">
-        <v>7.525195121765137</v>
+        <v>7.470383644104004</v>
       </c>
       <c r="E51">
-        <v>33.57</v>
+        <v>31.71</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6620,10 +6147,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>3.288818542480469</v>
+        <v>3.401452734375</v>
       </c>
       <c r="J51">
-        <v>8.380000000000001</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6634,13 +6161,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>6.188029500235499</v>
+        <v>6.75735157147973</v>
       </c>
       <c r="D52">
-        <v>7.532329559326172</v>
+        <v>7.464479446411133</v>
       </c>
       <c r="E52">
-        <v>33.7</v>
+        <v>31.9</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -6649,10 +6176,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>2.014494714355469</v>
+        <v>1.693572406005859</v>
       </c>
       <c r="J52">
-        <v>53.36</v>
+        <v>57.24</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6663,13 +6190,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>6.188021499498755</v>
+        <v>6.753111548128381</v>
       </c>
       <c r="D53">
-        <v>7.54020357131958</v>
+        <v>7.463644504547119</v>
       </c>
       <c r="E53">
-        <v>33.93</v>
+        <v>31.77</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6678,10 +6205,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>3.234295251464844</v>
+        <v>3.489037133789063</v>
       </c>
       <c r="J53">
-        <v>7.8</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6692,13 +6219,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>6.18684730698577</v>
+        <v>6.752613375672197</v>
       </c>
       <c r="D54">
-        <v>7.529942035675049</v>
+        <v>7.468175888061523</v>
       </c>
       <c r="E54">
-        <v>33.58</v>
+        <v>31.63</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -6707,10 +6234,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>1.716017541503906</v>
+        <v>1.699334643554687</v>
       </c>
       <c r="J54">
-        <v>58.54</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6721,13 +6248,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>6.18554519974025</v>
+        <v>6.749673185095323</v>
       </c>
       <c r="D55">
-        <v>7.533094882965088</v>
+        <v>7.46321964263916</v>
       </c>
       <c r="E55">
-        <v>33.91</v>
+        <v>32.05</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6736,10 +6263,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>3.175281298828125</v>
+        <v>3.432217517089844</v>
       </c>
       <c r="J55">
-        <v>9.24</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6750,13 +6277,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>6.186746825159124</v>
+        <v>6.751658410097646</v>
       </c>
       <c r="D56">
-        <v>7.537019729614258</v>
+        <v>7.476347923278809</v>
       </c>
       <c r="E56">
-        <v>33.92</v>
+        <v>31.74</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -6765,10 +6292,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>1.743870776367187</v>
+        <v>1.695627062988281</v>
       </c>
       <c r="J56">
-        <v>58.52</v>
+        <v>56.44</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6779,13 +6306,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>6.182058815407542</v>
+        <v>6.742503073363178</v>
       </c>
       <c r="D57">
-        <v>7.53706693649292</v>
+        <v>7.472122669219971</v>
       </c>
       <c r="E57">
-        <v>33.96</v>
+        <v>31.94</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -6794,10 +6321,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>3.157974450683594</v>
+        <v>3.441145935058594</v>
       </c>
       <c r="J57">
-        <v>8.699999999999999</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -6808,13 +6335,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>6.180500790081193</v>
+        <v>6.764118401350173</v>
       </c>
       <c r="D58">
-        <v>7.538257122039795</v>
+        <v>7.460658073425293</v>
       </c>
       <c r="E58">
-        <v>34.2</v>
+        <v>31.49</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -6823,10 +6350,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>1.758043756103516</v>
+        <v>1.722218688964844</v>
       </c>
       <c r="J58">
-        <v>58.6</v>
+        <v>56.76</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -6837,13 +6364,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>6.179718667426996</v>
+        <v>6.76743388808934</v>
       </c>
       <c r="D59">
-        <v>7.546054363250732</v>
+        <v>7.473881244659424</v>
       </c>
       <c r="E59">
-        <v>34</v>
+        <v>31.68</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -6852,10 +6379,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>3.185544384765625</v>
+        <v>3.41668173828125</v>
       </c>
       <c r="J59">
-        <v>9.06</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -6866,13 +6393,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>6.178457766507579</v>
+        <v>6.764783449932537</v>
       </c>
       <c r="D60">
-        <v>7.532077789306641</v>
+        <v>7.452890396118164</v>
       </c>
       <c r="E60">
-        <v>34.17</v>
+        <v>31.98</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6881,10 +6408,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>1.774889453125</v>
+        <v>1.721004791259766</v>
       </c>
       <c r="J60">
-        <v>58.42</v>
+        <v>56.48</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -6895,13 +6422,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>6.176821818393943</v>
+        <v>6.760899109123027</v>
       </c>
       <c r="D61">
-        <v>7.537100315093994</v>
+        <v>7.468299388885498</v>
       </c>
       <c r="E61">
-        <v>33.86</v>
+        <v>31.52</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6910,10 +6437,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>3.16390859375</v>
+        <v>3.3891806640625</v>
       </c>
       <c r="J61">
-        <v>9.619999999999999</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -6924,13 +6451,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>6.190048141817076</v>
+        <v>6.763403314404783</v>
       </c>
       <c r="D62">
-        <v>7.547236442565918</v>
+        <v>7.474267959594727</v>
       </c>
       <c r="E62">
-        <v>33.82</v>
+        <v>31.83</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -6939,10 +6466,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>1.792697973632813</v>
+        <v>1.632143768310547</v>
       </c>
       <c r="J62">
-        <v>58.02</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6953,13 +6480,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>6.189277826157292</v>
+        <v>6.760779355479553</v>
       </c>
       <c r="D63">
-        <v>7.522388458251953</v>
+        <v>7.469994068145752</v>
       </c>
       <c r="E63">
-        <v>34</v>
+        <v>31.75</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6968,10 +6495,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>3.155032958984375</v>
+        <v>3.396165991210938</v>
       </c>
       <c r="J63">
-        <v>9.56</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -6982,13 +6509,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>6.186644119499004</v>
+        <v>6.760433099966134</v>
       </c>
       <c r="D64">
-        <v>7.535943031311035</v>
+        <v>7.465386867523193</v>
       </c>
       <c r="E64">
-        <v>33.83</v>
+        <v>31.59</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6997,10 +6524,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>1.803616864013672</v>
+        <v>1.625607116699219</v>
       </c>
       <c r="J64">
-        <v>57.54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7011,13 +6538,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>6.189952268009693</v>
+        <v>6.757755292200409</v>
       </c>
       <c r="D65">
-        <v>7.539022922515869</v>
+        <v>7.45942497253418</v>
       </c>
       <c r="E65">
-        <v>33.77</v>
+        <v>31.77</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7026,10 +6553,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>3.153949523925781</v>
+        <v>3.372106884765625</v>
       </c>
       <c r="J65">
-        <v>9.640000000000001</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -7040,13 +6567,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>6.187881364231616</v>
+        <v>6.76051254188065</v>
       </c>
       <c r="D66">
-        <v>7.541347980499268</v>
+        <v>7.462286472320557</v>
       </c>
       <c r="E66">
-        <v>33.7</v>
+        <v>31.67</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -7055,10 +6582,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>1.810566180419922</v>
+        <v>1.637207037353516</v>
       </c>
       <c r="J66">
-        <v>57.96</v>
+        <v>57.78</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -7069,13 +6596,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>6.189348908652247</v>
+        <v>6.762277404818914</v>
       </c>
       <c r="D67">
-        <v>7.540210723876953</v>
+        <v>7.466120719909668</v>
       </c>
       <c r="E67">
-        <v>34.06</v>
+        <v>31.69</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -7084,10 +6611,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>3.148441040039062</v>
+        <v>3.384102478027344</v>
       </c>
       <c r="J67">
-        <v>9.119999999999999</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -7098,13 +6625,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>6.185709712779627</v>
+        <v>6.759759700403804</v>
       </c>
       <c r="D68">
-        <v>7.523626327514648</v>
+        <v>7.468921661376953</v>
       </c>
       <c r="E68">
-        <v>33.89</v>
+        <v>31.57</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -7113,10 +6640,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>1.819881341552734</v>
+        <v>1.635368829345703</v>
       </c>
       <c r="J68">
-        <v>57.66</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -7127,13 +6654,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>6.188671306171249</v>
+        <v>6.761624543012771</v>
       </c>
       <c r="D69">
-        <v>7.551775932312012</v>
+        <v>7.461218357086182</v>
       </c>
       <c r="E69">
-        <v>34</v>
+        <v>31.75</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -7142,10 +6669,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>3.11225078125</v>
+        <v>3.377656958007813</v>
       </c>
       <c r="J69">
-        <v>9.98</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -7156,13 +6683,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>6.188471055663793</v>
+        <v>6.759927015388961</v>
       </c>
       <c r="D70">
-        <v>7.535103797912598</v>
+        <v>7.461612224578857</v>
       </c>
       <c r="E70">
-        <v>33.95</v>
+        <v>31.7</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -7171,10 +6698,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>1.840380255126953</v>
+        <v>1.639550378417969</v>
       </c>
       <c r="J70">
-        <v>57.64</v>
+        <v>57.72</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -7185,13 +6712,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>6.18738534387234</v>
+        <v>6.761270907072895</v>
       </c>
       <c r="D71">
-        <v>7.526916027069092</v>
+        <v>7.464085578918457</v>
       </c>
       <c r="E71">
-        <v>33.72</v>
+        <v>31.98</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7200,10 +6727,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>3.151855200195313</v>
+        <v>3.354941711425781</v>
       </c>
       <c r="J71">
-        <v>9.300000000000001</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -7214,13 +6741,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>6.184106278208505</v>
+        <v>6.762706499184127</v>
       </c>
       <c r="D72">
-        <v>7.533041000366211</v>
+        <v>7.460354328155518</v>
       </c>
       <c r="E72">
-        <v>33.73</v>
+        <v>31.63</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7229,10 +6756,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>1.847119897460938</v>
+        <v>1.642942523193359</v>
       </c>
       <c r="J72">
-        <v>57</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -7243,13 +6770,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>6.185778065065367</v>
+        <v>6.759648323059082</v>
       </c>
       <c r="D73">
-        <v>7.542038917541504</v>
+        <v>7.460508823394775</v>
       </c>
       <c r="E73">
-        <v>33.9</v>
+        <v>31.57</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -7258,10 +6785,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>3.147773376464844</v>
+        <v>3.372827258300781</v>
       </c>
       <c r="J73">
-        <v>9.58</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -7272,13 +6799,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>6.189895283859388</v>
+        <v>6.76255364122644</v>
       </c>
       <c r="D74">
-        <v>7.535867214202881</v>
+        <v>7.463028430938721</v>
       </c>
       <c r="E74">
-        <v>33.83</v>
+        <v>31.61</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7287,10 +6814,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>1.850163134765625</v>
+        <v>1.642723980712891</v>
       </c>
       <c r="J74">
-        <v>56.86</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -7301,13 +6828,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>6.188060667662494</v>
+        <v>6.760508984591054</v>
       </c>
       <c r="D75">
-        <v>7.528454303741455</v>
+        <v>7.457467555999756</v>
       </c>
       <c r="E75">
-        <v>33.94</v>
+        <v>31.88</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7316,10 +6843,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>3.15635810546875</v>
+        <v>3.368016943359375</v>
       </c>
       <c r="J75">
-        <v>9.02</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -7330,13 +6857,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>6.187202453613281</v>
+        <v>6.760411587436642</v>
       </c>
       <c r="D76">
-        <v>7.530433177947998</v>
+        <v>7.463972568511963</v>
       </c>
       <c r="E76">
-        <v>33.86</v>
+        <v>31.77</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7345,10 +6872,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>1.737712023925781</v>
+        <v>1.642468634033203</v>
       </c>
       <c r="J76">
-        <v>58.66</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -7359,13 +6886,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>6.187627632006079</v>
+        <v>6.759103656870074</v>
       </c>
       <c r="D77">
-        <v>7.523816108703613</v>
+        <v>7.464223861694336</v>
       </c>
       <c r="E77">
-        <v>33.75</v>
+        <v>31.62</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7374,10 +6901,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>3.182284509277344</v>
+        <v>3.390133630371094</v>
       </c>
       <c r="J77">
-        <v>8.52</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -7388,13 +6915,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>6.187892394783223</v>
+        <v>6.763209448451489</v>
       </c>
       <c r="D78">
-        <v>7.533627033233643</v>
+        <v>7.453861713409424</v>
       </c>
       <c r="E78">
-        <v>34.03</v>
+        <v>31.77</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7403,10 +6930,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>1.7342017578125</v>
+        <v>1.638785131835937</v>
       </c>
       <c r="J78">
-        <v>58.7</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -7417,13 +6944,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>6.186325512101165</v>
+        <v>6.762856196513218</v>
       </c>
       <c r="D79">
-        <v>7.532052516937256</v>
+        <v>7.456300258636475</v>
       </c>
       <c r="E79">
-        <v>33.77</v>
+        <v>31.65</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7432,10 +6959,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>3.175286267089844</v>
+        <v>3.3840080078125</v>
       </c>
       <c r="J79">
-        <v>9.039999999999999</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -7446,13 +6973,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>6.186467900740362</v>
+        <v>6.760724206941318</v>
       </c>
       <c r="D80">
-        <v>7.536397933959961</v>
+        <v>7.45590353012085</v>
       </c>
       <c r="E80">
-        <v>33.83</v>
+        <v>31.78</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7461,10 +6988,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>1.738530328369141</v>
+        <v>1.641431365966797</v>
       </c>
       <c r="J80">
-        <v>58.8</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7475,13 +7002,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>6.18950909217902</v>
+        <v>6.76208882627234</v>
       </c>
       <c r="D81">
-        <v>7.535932540893555</v>
+        <v>7.464783191680908</v>
       </c>
       <c r="E81">
-        <v>34.15</v>
+        <v>31.86</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7490,10 +7017,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>3.140572924804688</v>
+        <v>3.377470727539063</v>
       </c>
       <c r="J81">
-        <v>9.44</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7504,13 +7031,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>6.188368539894577</v>
+        <v>6.763298009349182</v>
       </c>
       <c r="D82">
-        <v>7.531518459320068</v>
+        <v>7.466281890869141</v>
       </c>
       <c r="E82">
-        <v>33.88</v>
+        <v>31.71</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7519,10 +7046,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>1.750782403564453</v>
+        <v>1.646402819824219</v>
       </c>
       <c r="J82">
-        <v>58.6</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7533,13 +7060,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>6.189177065823985</v>
+        <v>6.763850013766668</v>
       </c>
       <c r="D83">
-        <v>7.530367851257324</v>
+        <v>7.467066764831543</v>
       </c>
       <c r="E83">
-        <v>33.61</v>
+        <v>31.94</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7548,10 +7075,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>3.174371496582031</v>
+        <v>3.372732238769531</v>
       </c>
       <c r="J83">
-        <v>8.84</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -7562,13 +7089,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>6.187585210378191</v>
+        <v>6.759638157566036</v>
       </c>
       <c r="D84">
-        <v>7.529374122619629</v>
+        <v>7.457319259643555</v>
       </c>
       <c r="E84">
-        <v>34.04</v>
+        <v>31.61</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7577,10 +7104,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>1.742282360839844</v>
+        <v>1.649345458984375</v>
       </c>
       <c r="J84">
-        <v>59.02</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -7591,13 +7118,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>6.186824705748432</v>
+        <v>6.767460413738689</v>
       </c>
       <c r="D85">
-        <v>7.528059959411621</v>
+        <v>7.468588352203369</v>
       </c>
       <c r="E85">
-        <v>33.91</v>
+        <v>31.75</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7606,10 +7133,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>3.161800476074219</v>
+        <v>3.3988318359375</v>
       </c>
       <c r="J85">
-        <v>9.16</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -7620,13 +7147,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>6.185319795017749</v>
+        <v>6.763614025791134</v>
       </c>
       <c r="D86">
-        <v>7.524020195007324</v>
+        <v>7.459599494934082</v>
       </c>
       <c r="E86">
-        <v>33.9</v>
+        <v>31.65</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7635,10 +7162,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>1.753676556396484</v>
+        <v>1.634210687255859</v>
       </c>
       <c r="J86">
-        <v>58.72</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -7649,13 +7176,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>6.185257489702343</v>
+        <v>6.762761846052862</v>
       </c>
       <c r="D87">
-        <v>7.535586833953857</v>
+        <v>7.46867036819458</v>
       </c>
       <c r="E87">
-        <v>33.96</v>
+        <v>31.68</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7664,10 +7191,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>3.1803439453125</v>
+        <v>3.362957946777344</v>
       </c>
       <c r="J87">
-        <v>8.880000000000001</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -7678,13 +7205,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>6.187405278197432</v>
+        <v>6.76064106004428</v>
       </c>
       <c r="D88">
-        <v>7.545547008514404</v>
+        <v>7.460612773895264</v>
       </c>
       <c r="E88">
-        <v>33.97</v>
+        <v>31.84</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -7693,10 +7220,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>1.752386022949219</v>
+        <v>1.636777423095703</v>
       </c>
       <c r="J88">
-        <v>58.38</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -7707,13 +7234,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>6.186835740519836</v>
+        <v>6.763992883462821</v>
       </c>
       <c r="D89">
-        <v>7.532589435577393</v>
+        <v>7.463286876678467</v>
       </c>
       <c r="E89">
-        <v>33.8</v>
+        <v>31.76</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -7722,10 +7249,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>3.146727001953125</v>
+        <v>3.398137353515625</v>
       </c>
       <c r="J89">
-        <v>9.199999999999999</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -7736,13 +7263,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>6.186989556371638</v>
+        <v>6.758821403030801</v>
       </c>
       <c r="D90">
-        <v>7.53585147857666</v>
+        <v>7.466774463653564</v>
       </c>
       <c r="E90">
-        <v>33.75</v>
+        <v>31.78</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -7751,10 +7278,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>1.761521398925781</v>
+        <v>1.631679071044922</v>
       </c>
       <c r="J90">
-        <v>58.44</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7765,13 +7292,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>6.189728888790165</v>
+        <v>6.764437460266383</v>
       </c>
       <c r="D91">
-        <v>7.535318374633789</v>
+        <v>7.453438758850098</v>
       </c>
       <c r="E91">
-        <v>33.83</v>
+        <v>31.8</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7780,10 +7307,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>3.141753308105469</v>
+        <v>3.385563000488281</v>
       </c>
       <c r="J91">
-        <v>9.42</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -7794,13 +7321,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>6.188711406910314</v>
+        <v>6.765645267689123</v>
       </c>
       <c r="D92">
-        <v>7.530910968780518</v>
+        <v>7.466860771179199</v>
       </c>
       <c r="E92">
-        <v>33.9</v>
+        <v>31.53</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -7809,10 +7336,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>1.763939739990234</v>
+        <v>1.629881579589844</v>
       </c>
       <c r="J92">
-        <v>58.44</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -7823,13 +7350,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>6.187369650444098</v>
+        <v>6.759449697173802</v>
       </c>
       <c r="D93">
-        <v>7.529003620147705</v>
+        <v>7.461034774780273</v>
       </c>
       <c r="E93">
-        <v>33.76</v>
+        <v>31.84</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -7838,10 +7365,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>3.144504235839844</v>
+        <v>3.39115048828125</v>
       </c>
       <c r="J93">
-        <v>9.32</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -7852,13 +7379,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>6.187985783129667</v>
+        <v>6.764120886811113</v>
       </c>
       <c r="D94">
-        <v>7.534739971160889</v>
+        <v>7.468206882476807</v>
       </c>
       <c r="E94">
-        <v>33.66</v>
+        <v>31.72</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -7867,10 +7394,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>1.774185455322266</v>
+        <v>1.628755450439453</v>
       </c>
       <c r="J94">
-        <v>58.16</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -7881,13 +7408,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>6.188675863552938</v>
+        <v>6.75936464714793</v>
       </c>
       <c r="D95">
-        <v>7.531198501586914</v>
+        <v>7.465727806091309</v>
       </c>
       <c r="E95">
-        <v>33.94</v>
+        <v>31.78</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -7896,10 +7423,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>3.142171337890625</v>
+        <v>3.397399279785156</v>
       </c>
       <c r="J95">
-        <v>9.42</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -7910,13 +7437,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>6.186940800827162</v>
+        <v>6.763478996479406</v>
       </c>
       <c r="D96">
-        <v>7.535450458526611</v>
+        <v>7.452702522277832</v>
       </c>
       <c r="E96">
-        <v>33.84</v>
+        <v>31.52</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -7925,10 +7452,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>1.776200830078125</v>
+        <v>1.631652191162109</v>
       </c>
       <c r="J96">
-        <v>58.62</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -7939,13 +7466,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>6.190638639230643</v>
+        <v>6.75817624657555</v>
       </c>
       <c r="D97">
-        <v>7.540161609649658</v>
+        <v>7.46133279800415</v>
       </c>
       <c r="E97">
-        <v>34.11</v>
+        <v>31.72</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7954,10 +7481,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>3.16046552734375</v>
+        <v>3.373919897460937</v>
       </c>
       <c r="J97">
-        <v>9.16</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -7968,13 +7495,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>6.186465153651955</v>
+        <v>6.761867063235393</v>
       </c>
       <c r="D98">
-        <v>7.526586532592773</v>
+        <v>7.459762096405029</v>
       </c>
       <c r="E98">
-        <v>33.8</v>
+        <v>31.57</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -7983,10 +7510,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>1.777838635253906</v>
+        <v>1.630259375</v>
       </c>
       <c r="J98">
-        <v>58.44</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -7997,13 +7524,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>6.18721783899628</v>
+        <v>6.761606748125194</v>
       </c>
       <c r="D99">
-        <v>7.532476425170898</v>
+        <v>7.467799186706543</v>
       </c>
       <c r="E99">
-        <v>34.05</v>
+        <v>31.58</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -8012,10 +7539,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>3.193492443847656</v>
+        <v>3.398242724609375</v>
       </c>
       <c r="J99">
-        <v>8.56</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -8026,13 +7553,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>6.187751597007819</v>
+        <v>6.761445606704306</v>
       </c>
       <c r="D100">
-        <v>7.52302074432373</v>
+        <v>7.460231304168701</v>
       </c>
       <c r="E100">
-        <v>33.88</v>
+        <v>31.79</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -8041,10 +7568,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>1.729954107666016</v>
+        <v>1.632555712890625</v>
       </c>
       <c r="J100">
-        <v>58.58</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -8055,13 +7582,13 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>6.187746621866141</v>
+        <v>6.759466369595148</v>
       </c>
       <c r="D101">
-        <v>7.539976119995117</v>
+        <v>7.46580696105957</v>
       </c>
       <c r="E101">
-        <v>33.65</v>
+        <v>31.89</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -8070,10 +7597,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>3.182930932617187</v>
+        <v>3.3504732421875</v>
       </c>
       <c r="J101">
-        <v>8.6</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -8084,13 +7611,13 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>6.190697615125538</v>
+        <v>6.762867999287833</v>
       </c>
       <c r="D102">
-        <v>7.527981758117676</v>
+        <v>7.454828262329102</v>
       </c>
       <c r="E102">
-        <v>34.13</v>
+        <v>31.99</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -8099,10 +7626,10 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>1.727604846191406</v>
+        <v>1.639373931884766</v>
       </c>
       <c r="J102">
-        <v>58.8</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -8113,13 +7640,13 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>6.18980097559701</v>
+        <v>6.763787906781762</v>
       </c>
       <c r="D103">
-        <v>7.530491352081299</v>
+        <v>7.460199356079102</v>
       </c>
       <c r="E103">
-        <v>33.96</v>
+        <v>32.01000000000001</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -8128,13 +7655,28 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>3.153745434570312</v>
+        <v>3.363280786132813</v>
       </c>
       <c r="J103">
-        <v>9.16</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="104" spans="1:10">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>6.758479544546752</v>
+      </c>
+      <c r="D104">
+        <v>7.458043098449707</v>
+      </c>
+      <c r="E104">
+        <v>31.92</v>
+      </c>
       <c r="G104">
         <v>1</v>
       </c>
@@ -8142,13 +7684,28 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>1.743196697998047</v>
+        <v>1.636340496826172</v>
       </c>
       <c r="J104">
-        <v>58.7</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="105" spans="1:10">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>6.75791272019918</v>
+      </c>
+      <c r="D105">
+        <v>7.474539279937744</v>
+      </c>
+      <c r="E105">
+        <v>31.79</v>
+      </c>
       <c r="G105">
         <v>0</v>
       </c>
@@ -8156,13 +7713,28 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>3.185353625488281</v>
+        <v>3.395324572753906</v>
       </c>
       <c r="J105">
-        <v>8.52</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="106" spans="1:10">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>6.763620709950945</v>
+      </c>
+      <c r="D106">
+        <v>7.461280345916748</v>
+      </c>
+      <c r="E106">
+        <v>31.76</v>
+      </c>
       <c r="G106">
         <v>1</v>
       </c>
@@ -8170,10 +7742,10 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>1.729631292724609</v>
+        <v>1.632272589111328</v>
       </c>
       <c r="J106">
-        <v>58.64</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -8184,10 +7756,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>3.156623754882812</v>
+        <v>3.352383435058594</v>
       </c>
       <c r="J107">
-        <v>9.32</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -8198,10 +7770,10 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>1.742452331542969</v>
+        <v>1.641740985107422</v>
       </c>
       <c r="J108">
-        <v>58.5</v>
+        <v>58.14</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -8212,10 +7784,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>3.156457983398437</v>
+        <v>3.386903723144531</v>
       </c>
       <c r="J109">
-        <v>9.380000000000001</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -8226,10 +7798,10 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>1.739543951416016</v>
+        <v>1.632727770996094</v>
       </c>
       <c r="J110">
-        <v>58.46</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -8240,10 +7812,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>3.159050537109375</v>
+        <v>3.381011169433594</v>
       </c>
       <c r="J111">
-        <v>9.34</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -8254,10 +7826,10 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>1.742366802978516</v>
+        <v>1.635076910400391</v>
       </c>
       <c r="J112">
-        <v>58.58</v>
+        <v>58.36</v>
       </c>
     </row>
     <row r="113" spans="7:10">
@@ -8268,10 +7840,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>3.131417639160156</v>
+        <v>3.394798461914062</v>
       </c>
       <c r="J113">
-        <v>9.74</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -8282,10 +7854,10 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>1.750195037841797</v>
+        <v>1.630759356689453</v>
       </c>
       <c r="J114">
-        <v>58.66</v>
+        <v>57.68</v>
       </c>
     </row>
     <row r="115" spans="7:10">
@@ -8296,10 +7868,10 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>3.160873986816406</v>
+        <v>3.374780773925781</v>
       </c>
       <c r="J115">
-        <v>9.18</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="116" spans="7:10">
@@ -8310,10 +7882,10 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>1.746756384277344</v>
+        <v>1.637409832763672</v>
       </c>
       <c r="J116">
-        <v>58.82</v>
+        <v>57.86</v>
       </c>
     </row>
     <row r="117" spans="7:10">
@@ -8324,10 +7896,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>3.147695947265625</v>
+        <v>3.374471032714844</v>
       </c>
       <c r="J117">
-        <v>9.42</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -8338,10 +7910,10 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>1.746133764648437</v>
+        <v>1.637253247070313</v>
       </c>
       <c r="J118">
-        <v>58.92</v>
+        <v>58.42</v>
       </c>
     </row>
     <row r="119" spans="7:10">
@@ -8352,10 +7924,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>3.164253930664063</v>
+        <v>3.412309252929687</v>
       </c>
       <c r="J119">
-        <v>9.1</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -8366,10 +7938,10 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>1.744181524658203</v>
+        <v>1.624227770996094</v>
       </c>
       <c r="J120">
-        <v>58.62</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="121" spans="7:10">
@@ -8380,10 +7952,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>3.170924768066406</v>
+        <v>3.374733032226562</v>
       </c>
       <c r="J121">
-        <v>9.1</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -8394,10 +7966,10 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>1.743012506103516</v>
+        <v>1.64189638671875</v>
       </c>
       <c r="J122">
-        <v>58.54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="7:10">
@@ -8408,10 +7980,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>3.157780895996094</v>
+        <v>3.380267236328125</v>
       </c>
       <c r="J123">
-        <v>9.279999999999999</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -8422,10 +7994,10 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>1.733100079345703</v>
+        <v>1.631848291015625</v>
       </c>
       <c r="J124">
-        <v>58.72</v>
+        <v>57.94</v>
       </c>
     </row>
     <row r="125" spans="7:10">
@@ -8436,10 +8008,10 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>3.149591198730469</v>
+        <v>3.399866101074219</v>
       </c>
       <c r="J125">
-        <v>9.06</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="126" spans="7:10">
@@ -8450,10 +8022,10 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>1.744087512207031</v>
+        <v>1.631939556884766</v>
       </c>
       <c r="J126">
-        <v>58.6</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="127" spans="7:10">
@@ -8464,10 +8036,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>3.175597570800781</v>
+        <v>3.364210961914063</v>
       </c>
       <c r="J127">
-        <v>8.779999999999999</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -8478,10 +8050,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>1.732849188232422</v>
+        <v>1.638625897216797</v>
       </c>
       <c r="J128">
-        <v>58.76</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -8492,10 +8064,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>3.179378759765625</v>
+        <v>3.401784606933594</v>
       </c>
       <c r="J129">
-        <v>8.84</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -8506,10 +8078,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>1.735909698486328</v>
+        <v>1.627000604248047</v>
       </c>
       <c r="J130">
-        <v>58.56</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="131" spans="7:10">
@@ -8520,10 +8092,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>3.153228625488281</v>
+        <v>3.40888779296875</v>
       </c>
       <c r="J131">
-        <v>9.300000000000001</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -8534,10 +8106,10 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>1.744807458496094</v>
+        <v>1.628350531005859</v>
       </c>
       <c r="J132">
-        <v>58.82</v>
+        <v>58.14</v>
       </c>
     </row>
     <row r="133" spans="7:10">
@@ -8548,10 +8120,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>3.156899072265625</v>
+        <v>3.404593884277344</v>
       </c>
       <c r="J133">
-        <v>9.18</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -8562,10 +8134,10 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>1.738083599853516</v>
+        <v>1.6300626953125</v>
       </c>
       <c r="J134">
-        <v>58.6</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="135" spans="7:10">
@@ -8576,10 +8148,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>3.158945239257812</v>
+        <v>3.390383813476562</v>
       </c>
       <c r="J135">
-        <v>9.16</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -8590,10 +8162,10 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>1.746015124511719</v>
+        <v>1.63139248046875</v>
       </c>
       <c r="J136">
-        <v>58.84</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="137" spans="7:10">
@@ -8604,10 +8176,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>3.151272534179688</v>
+        <v>3.367092260742187</v>
       </c>
       <c r="J137">
-        <v>9.039999999999999</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -8618,10 +8190,10 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>1.743431719970703</v>
+        <v>1.641685620117187</v>
       </c>
       <c r="J138">
-        <v>58.86</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="139" spans="7:10">
@@ -8632,10 +8204,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>3.173166674804687</v>
+        <v>3.360122778320313</v>
       </c>
       <c r="J139">
-        <v>8.74</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -8646,10 +8218,10 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>1.737944287109375</v>
+        <v>1.634678582763672</v>
       </c>
       <c r="J140">
-        <v>58.7</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="141" spans="7:10">
@@ -8660,10 +8232,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>3.180110302734375</v>
+        <v>3.405463684082031</v>
       </c>
       <c r="J141">
-        <v>8.800000000000001</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -8674,10 +8246,10 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>1.73771669921875</v>
+        <v>1.628166613769531</v>
       </c>
       <c r="J142">
-        <v>58.66</v>
+        <v>58.14</v>
       </c>
     </row>
     <row r="143" spans="7:10">
@@ -8688,10 +8260,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>3.169426550292969</v>
+        <v>3.390402624511719</v>
       </c>
       <c r="J143">
-        <v>9.220000000000001</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -8702,10 +8274,10 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>1.738263067626953</v>
+        <v>1.633731475830078</v>
       </c>
       <c r="J144">
-        <v>58.58</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="145" spans="7:10">
@@ -8716,10 +8288,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>3.184290759277344</v>
+        <v>3.411242224121094</v>
       </c>
       <c r="J145">
-        <v>8.880000000000001</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -8730,10 +8302,10 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>1.729802990722656</v>
+        <v>1.628500921630859</v>
       </c>
       <c r="J146">
-        <v>58.78</v>
+        <v>57.94</v>
       </c>
     </row>
     <row r="147" spans="7:10">
@@ -8744,10 +8316,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>3.179879736328125</v>
+        <v>3.368909924316406</v>
       </c>
       <c r="J147">
-        <v>9.08</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -8758,10 +8330,10 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>1.730547497558594</v>
+        <v>1.633390765380859</v>
       </c>
       <c r="J148">
-        <v>58.8</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="149" spans="7:10">
@@ -8772,10 +8344,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>3.17544052734375</v>
+        <v>3.382710620117188</v>
       </c>
       <c r="J149">
-        <v>8.9</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -8786,10 +8358,10 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>1.734492193603516</v>
+        <v>1.629499884033203</v>
       </c>
       <c r="J150">
-        <v>58.82</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="151" spans="7:10">
@@ -8800,10 +8372,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>3.177562976074219</v>
+        <v>3.394664624023437</v>
       </c>
       <c r="J151">
-        <v>8.82</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -8814,10 +8386,10 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>1.732863500976562</v>
+        <v>1.630183721923828</v>
       </c>
       <c r="J152">
-        <v>58.68</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="153" spans="7:10">
@@ -8828,10 +8400,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>3.140516845703125</v>
+        <v>3.378680114746094</v>
       </c>
       <c r="J153">
-        <v>9.4</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -8842,10 +8414,10 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>1.744955816650391</v>
+        <v>1.630230084228516</v>
       </c>
       <c r="J154">
-        <v>58.66</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="155" spans="7:10">
@@ -8856,10 +8428,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>3.164743078613281</v>
+        <v>3.380223413085937</v>
       </c>
       <c r="J155">
-        <v>8.880000000000001</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -8870,10 +8442,10 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>1.739048553466797</v>
+        <v>1.632213635253906</v>
       </c>
       <c r="J156">
-        <v>58.66</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="157" spans="7:10">
@@ -8884,10 +8456,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>3.172337109375</v>
+        <v>3.373534252929688</v>
       </c>
       <c r="J157">
-        <v>9</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -8898,10 +8470,10 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>1.732705133056641</v>
+        <v>1.634418566894531</v>
       </c>
       <c r="J158">
-        <v>58.66</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="159" spans="7:10">
@@ -8912,10 +8484,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>3.144576025390625</v>
+        <v>3.37401142578125</v>
       </c>
       <c r="J159">
-        <v>9.48</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -8926,10 +8498,10 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>1.745904626464844</v>
+        <v>1.632401788330078</v>
       </c>
       <c r="J160">
-        <v>58.82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="7:10">
@@ -8940,10 +8512,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>3.159402197265625</v>
+        <v>3.397096752929687</v>
       </c>
       <c r="J161">
-        <v>8.960000000000001</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -8954,10 +8526,10 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>1.741864440917969</v>
+        <v>1.627501043701172</v>
       </c>
       <c r="J162">
-        <v>58.8</v>
+        <v>58.04</v>
       </c>
     </row>
     <row r="163" spans="7:10">
@@ -8968,10 +8540,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>3.198531506347656</v>
+        <v>3.36771416015625</v>
       </c>
       <c r="J163">
-        <v>8.48</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -8982,10 +8554,10 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>1.729058392333984</v>
+        <v>1.634274139404297</v>
       </c>
       <c r="J164">
-        <v>58.74</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="165" spans="7:10">
@@ -8996,10 +8568,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>3.162620617675781</v>
+        <v>3.398333569335938</v>
       </c>
       <c r="J165">
-        <v>8.94</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -9010,10 +8582,10 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>1.737847290039062</v>
+        <v>1.631025122070312</v>
       </c>
       <c r="J166">
-        <v>59.14</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="167" spans="7:10">
@@ -9024,10 +8596,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>3.158824975585937</v>
+        <v>3.379175939941406</v>
       </c>
       <c r="J167">
-        <v>9.08</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -9038,10 +8610,10 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>1.7347703125</v>
+        <v>1.633885314941406</v>
       </c>
       <c r="J168">
-        <v>58.74</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="169" spans="7:10">
@@ -9052,10 +8624,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>3.179523364257812</v>
+        <v>3.370238903808594</v>
       </c>
       <c r="J169">
-        <v>9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -9066,10 +8638,10 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>1.735866027832031</v>
+        <v>1.638799530029297</v>
       </c>
       <c r="J170">
-        <v>58.8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="7:10">
@@ -9080,10 +8652,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>3.160794189453125</v>
+        <v>3.372353161621094</v>
       </c>
       <c r="J171">
-        <v>9.34</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -9094,10 +8666,10 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>1.740320574951172</v>
+        <v>1.634050122070313</v>
       </c>
       <c r="J172">
-        <v>58.58</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="173" spans="7:10">
@@ -9108,10 +8680,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>3.149877099609375</v>
+        <v>3.3845330078125</v>
       </c>
       <c r="J173">
-        <v>9.359999999999999</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -9122,10 +8694,10 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>1.740248425292969</v>
+        <v>1.632873400878906</v>
       </c>
       <c r="J174">
-        <v>58.58</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="175" spans="7:10">
@@ -9136,10 +8708,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>3.164810607910156</v>
+        <v>3.37199521484375</v>
       </c>
       <c r="J175">
-        <v>9</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -9150,10 +8722,10 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>1.732950103759766</v>
+        <v>1.637734918212891</v>
       </c>
       <c r="J176">
-        <v>58.6</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="177" spans="7:10">
@@ -9164,10 +8736,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>3.175437829589844</v>
+        <v>3.390069030761719</v>
       </c>
       <c r="J177">
-        <v>8.779999999999999</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -9178,10 +8750,10 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>1.733976550292969</v>
+        <v>1.630772052001953</v>
       </c>
       <c r="J178">
-        <v>58.72</v>
+        <v>58.16</v>
       </c>
     </row>
     <row r="179" spans="7:10">
@@ -9192,10 +8764,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>3.156125720214844</v>
+        <v>3.376808447265625</v>
       </c>
       <c r="J179">
-        <v>9.02</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -9206,10 +8778,10 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>1.742903717041016</v>
+        <v>1.631036883544922</v>
       </c>
       <c r="J180">
-        <v>58.64</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="181" spans="7:10">
@@ -9220,10 +8792,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>3.161055834960937</v>
+        <v>3.378163195800781</v>
       </c>
       <c r="J181">
-        <v>9.06</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -9234,10 +8806,10 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>1.742354821777344</v>
+        <v>1.634454345703125</v>
       </c>
       <c r="J182">
-        <v>58.74</v>
+        <v>57.52</v>
       </c>
     </row>
     <row r="183" spans="7:10">
@@ -9248,10 +8820,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>3.180024548339844</v>
+        <v>3.375725476074219</v>
       </c>
       <c r="J183">
-        <v>8.699999999999999</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -9262,10 +8834,10 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>1.734885455322266</v>
+        <v>1.632734350585938</v>
       </c>
       <c r="J184">
-        <v>58.82</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="185" spans="7:10">
@@ -9276,10 +8848,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>3.182358752441406</v>
+        <v>3.392479931640625</v>
       </c>
       <c r="J185">
-        <v>8.640000000000001</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -9290,10 +8862,10 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>1.739796606445313</v>
+        <v>1.631324975585938</v>
       </c>
       <c r="J186">
-        <v>58.68</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="187" spans="7:10">
@@ -9304,10 +8876,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>3.1648322265625</v>
+        <v>3.386288537597656</v>
       </c>
       <c r="J187">
-        <v>9.02</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -9318,10 +8890,10 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>1.734246325683594</v>
+        <v>1.634183245849609</v>
       </c>
       <c r="J188">
-        <v>58.86</v>
+        <v>58.14</v>
       </c>
     </row>
     <row r="189" spans="7:10">
@@ -9332,10 +8904,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>3.167652734375</v>
+        <v>3.380398803710937</v>
       </c>
       <c r="J189">
-        <v>9</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -9346,10 +8918,10 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>1.734558483886719</v>
+        <v>1.631256951904297</v>
       </c>
       <c r="J190">
-        <v>58.68</v>
+        <v>57.72</v>
       </c>
     </row>
     <row r="191" spans="7:10">
@@ -9360,10 +8932,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>3.141713403320312</v>
+        <v>3.399845617675781</v>
       </c>
       <c r="J191">
-        <v>9.32</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -9374,10 +8946,10 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>1.744977789306641</v>
+        <v>1.631033526611328</v>
       </c>
       <c r="J192">
-        <v>58.9</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="193" spans="7:10">
@@ -9388,10 +8960,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>3.186027453613281</v>
+        <v>3.391813940429687</v>
       </c>
       <c r="J193">
-        <v>8.960000000000001</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -9402,10 +8974,10 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>1.731945001220703</v>
+        <v>1.631806616210937</v>
       </c>
       <c r="J194">
-        <v>58.64</v>
+        <v>57.68</v>
       </c>
     </row>
     <row r="195" spans="7:10">
@@ -9416,10 +8988,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>3.15080283203125</v>
+        <v>3.377250378417969</v>
       </c>
       <c r="J195">
-        <v>9.34</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -9430,10 +9002,10 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>1.741097351074219</v>
+        <v>1.639124334716797</v>
       </c>
       <c r="J196">
-        <v>58.76</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="197" spans="7:10">
@@ -9444,10 +9016,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>3.169665222167969</v>
+        <v>3.374301196289062</v>
       </c>
       <c r="J197">
-        <v>8.94</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -9458,10 +9030,10 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>1.736967199707031</v>
+        <v>1.632749694824219</v>
       </c>
       <c r="J198">
-        <v>58.82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="7:10">
@@ -9472,10 +9044,10 @@
         <v>99</v>
       </c>
       <c r="I199">
-        <v>3.185886840820312</v>
+        <v>3.363663488769531</v>
       </c>
       <c r="J199">
-        <v>8.539999999999999</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="200" spans="7:10">
@@ -9486,10 +9058,10 @@
         <v>99</v>
       </c>
       <c r="I200">
-        <v>1.731090093994141</v>
+        <v>1.635513464355469</v>
       </c>
       <c r="J200">
-        <v>58.76</v>
+        <v>58.16</v>
       </c>
     </row>
     <row r="201" spans="7:10">
@@ -9500,10 +9072,10 @@
         <v>100</v>
       </c>
       <c r="I201">
-        <v>3.143015173339844</v>
+        <v>3.367986022949219</v>
       </c>
       <c r="J201">
-        <v>9.4</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="202" spans="7:10">
@@ -9514,10 +9086,10 @@
         <v>100</v>
       </c>
       <c r="I202">
-        <v>1.739035229492188</v>
+        <v>1.634520660400391</v>
       </c>
       <c r="J202">
-        <v>58.86</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="203" spans="7:10">
@@ -9528,10 +9100,10 @@
         <v>101</v>
       </c>
       <c r="I203">
-        <v>3.178000073242187</v>
+        <v>3.362971655273438</v>
       </c>
       <c r="J203">
-        <v>8.94</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="204" spans="7:10">
@@ -9542,10 +9114,94 @@
         <v>101</v>
       </c>
       <c r="I204">
-        <v>1.735830346679688</v>
+        <v>1.637609783935547</v>
       </c>
       <c r="J204">
-        <v>58.98</v>
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="205" spans="7:10">
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>102</v>
+      </c>
+      <c r="I205">
+        <v>3.367524780273437</v>
+      </c>
+      <c r="J205">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="206" spans="7:10">
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>102</v>
+      </c>
+      <c r="I206">
+        <v>1.634631115722656</v>
+      </c>
+      <c r="J206">
+        <v>58.18</v>
+      </c>
+    </row>
+    <row r="207" spans="7:10">
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>103</v>
+      </c>
+      <c r="I207">
+        <v>3.384154138183594</v>
+      </c>
+      <c r="J207">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="208" spans="7:10">
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>103</v>
+      </c>
+      <c r="I208">
+        <v>1.632660290527344</v>
+      </c>
+      <c r="J208">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="209" spans="7:10">
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>104</v>
+      </c>
+      <c r="I209">
+        <v>3.3793849609375</v>
+      </c>
+      <c r="J209">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="210" spans="7:10">
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>104</v>
+      </c>
+      <c r="I210">
+        <v>1.633096527099609</v>
+      </c>
+      <c r="J210">
+        <v>58.32</v>
       </c>
     </row>
   </sheetData>
